--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_39.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3801586.50545849</v>
+        <v>3801233.527780721</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>239214.311817197</v>
+        <v>239214.3118171984</v>
       </c>
     </row>
     <row r="8">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>143.6161824373465</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>161.0455346848335</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G2" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
         <v>185.3566856159496</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>145.5577298436975</v>
@@ -753,10 +753,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,19 +786,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>6.201841761237146</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
-        <v>238.9027100790231</v>
+        <v>152.6374027782715</v>
       </c>
       <c r="X3" t="n">
         <v>195.9378182409833</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>211.5726649703493</v>
+        <v>13.48037621410408</v>
       </c>
       <c r="T4" t="n">
-        <v>14.62605510125666</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>296.2095579424284</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>222.1153568062989</v>
@@ -956,13 +956,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>369.1110151055265</v>
       </c>
     </row>
     <row r="6">
@@ -978,19 +978,19 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>24.36482481957586</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
         <v>67.69846245683961</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
         <v>151.2714921173871</v>
@@ -1035,13 +1035,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
-        <v>238.9027100790231</v>
+        <v>37.88434112379028</v>
       </c>
       <c r="X6" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="7">
@@ -1057,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>58.0633291268696</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>268.6107013963115</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>130.1075471085585</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>258.9706099646872</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
         <v>358.909580840975</v>
@@ -1215,22 +1215,22 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>85.5251951892063</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>82.64215461479291</v>
       </c>
       <c r="F9" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>147.8649255692296</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>242.420315677682</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>276.6729386146302</v>
       </c>
       <c r="C11" t="n">
         <v>264.6842555723119</v>
@@ -1376,19 +1376,19 @@
         <v>255.6655596168399</v>
       </c>
       <c r="E11" t="n">
-        <v>277.4076971867455</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>296.5795132747226</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>298.5127811721451</v>
       </c>
       <c r="H11" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>57.65886129508321</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>68.82617144663438</v>
       </c>
       <c r="T11" t="n">
         <v>108.6851912980902</v>
       </c>
       <c r="U11" t="n">
-        <v>138.9063174149371</v>
+        <v>138.9063174149372</v>
       </c>
       <c r="V11" t="n">
         <v>220.1793158548093</v>
       </c>
       <c r="W11" t="n">
-        <v>134.7635514389042</v>
+        <v>245.4794153327662</v>
       </c>
       <c r="X11" t="n">
         <v>264.7796735655128</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>276.1762713617116</v>
       </c>
     </row>
     <row r="12">
@@ -1461,7 +1461,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>127.4412149769483</v>
+        <v>110.2087629321379</v>
       </c>
       <c r="H12" t="n">
         <v>98.93847887876893</v>
@@ -1497,7 +1497,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S12" t="n">
-        <v>134.0390400725778</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T12" t="n">
         <v>186.7982527956746</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>68.28964948932727</v>
+        <v>68.28964948932729</v>
       </c>
       <c r="C13" t="n">
-        <v>54.48964433472776</v>
+        <v>54.48964433472777</v>
       </c>
       <c r="D13" t="n">
-        <v>38.11100873230615</v>
+        <v>38.11100873230616</v>
       </c>
       <c r="E13" t="n">
-        <v>37.0587585880856</v>
+        <v>37.05875858808561</v>
       </c>
       <c r="F13" t="n">
-        <v>37.5256829162719</v>
+        <v>37.52568291627192</v>
       </c>
       <c r="G13" t="n">
-        <v>53.80038563761974</v>
+        <v>53.80038563761975</v>
       </c>
       <c r="H13" t="n">
-        <v>44.34875326031016</v>
+        <v>44.34875326031018</v>
       </c>
       <c r="I13" t="n">
-        <v>29.33084844513951</v>
+        <v>29.33084844513952</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.59639806355682</v>
+        <v>34.59639806355683</v>
       </c>
       <c r="S13" t="n">
-        <v>98.14249946214056</v>
+        <v>98.14249946214058</v>
       </c>
       <c r="T13" t="n">
         <v>117.4169981442692</v>
@@ -1591,7 +1591,7 @@
         <v>169.8646719595661</v>
       </c>
       <c r="X13" t="n">
-        <v>115.5097739553692</v>
+        <v>115.5097739553693</v>
       </c>
       <c r="Y13" t="n">
         <v>106.3846417114369</v>
@@ -1607,25 +1607,25 @@
         <v>276.6729386146302</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>105.1131399532561</v>
       </c>
       <c r="D14" t="n">
-        <v>192.8580911037001</v>
+        <v>255.6655596168399</v>
       </c>
       <c r="E14" t="n">
-        <v>277.4076971867455</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>296.5795132747226</v>
       </c>
       <c r="G14" t="n">
-        <v>298.5127811721451</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>216.0628961504551</v>
       </c>
       <c r="I14" t="n">
-        <v>57.6588612950832</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.92652010774083</v>
+        <v>71.92652010774084</v>
       </c>
       <c r="T14" t="n">
         <v>108.6851912980902</v>
       </c>
       <c r="U14" t="n">
-        <v>138.9063174149371</v>
+        <v>138.9063174149372</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>245.4794153327662</v>
       </c>
       <c r="X14" t="n">
         <v>264.7796735655128</v>
@@ -1701,7 +1701,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H15" t="n">
-        <v>98.93847887876893</v>
+        <v>81.70602683395862</v>
       </c>
       <c r="I15" t="n">
         <v>67.69846245683961</v>
@@ -1746,7 +1746,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W15" t="n">
-        <v>221.670258034214</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X15" t="n">
         <v>195.9378182409833</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>68.28964948932727</v>
+        <v>68.28964948932729</v>
       </c>
       <c r="C16" t="n">
-        <v>54.48964433472776</v>
+        <v>54.48964433472777</v>
       </c>
       <c r="D16" t="n">
-        <v>38.11100873230615</v>
+        <v>38.11100873230616</v>
       </c>
       <c r="E16" t="n">
-        <v>37.0587585880856</v>
+        <v>37.05875858808561</v>
       </c>
       <c r="F16" t="n">
-        <v>37.5256829162719</v>
+        <v>37.52568291627192</v>
       </c>
       <c r="G16" t="n">
-        <v>53.80038563761974</v>
+        <v>53.80038563761975</v>
       </c>
       <c r="H16" t="n">
-        <v>44.34875326031016</v>
+        <v>44.34875326031018</v>
       </c>
       <c r="I16" t="n">
-        <v>29.33084844513951</v>
+        <v>29.33084844513952</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.59639806355682</v>
+        <v>34.59639806355683</v>
       </c>
       <c r="S16" t="n">
-        <v>98.14249946214056</v>
+        <v>98.14249946214058</v>
       </c>
       <c r="T16" t="n">
         <v>117.4169981442692</v>
@@ -1828,7 +1828,7 @@
         <v>169.8646719595661</v>
       </c>
       <c r="X16" t="n">
-        <v>115.5097739553692</v>
+        <v>115.5097739553693</v>
       </c>
       <c r="Y16" t="n">
         <v>106.3846417114369</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>223.7962415964283</v>
+        <v>223.7962415964282</v>
       </c>
       <c r="C17" t="n">
-        <v>211.8075585541101</v>
+        <v>211.80755855411</v>
       </c>
       <c r="D17" t="n">
-        <v>202.788862598638</v>
+        <v>202.7888625986379</v>
       </c>
       <c r="E17" t="n">
-        <v>224.5310001685436</v>
+        <v>224.5310001685435</v>
       </c>
       <c r="F17" t="n">
-        <v>243.7028162565207</v>
+        <v>243.7028162565206</v>
       </c>
       <c r="G17" t="n">
-        <v>245.6360841539433</v>
+        <v>245.6360841539432</v>
       </c>
       <c r="H17" t="n">
-        <v>163.1861991322532</v>
+        <v>163.1861991322531</v>
       </c>
       <c r="I17" t="n">
-        <v>4.782164276881332</v>
+        <v>4.782164276881218</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>19.04982308953896</v>
+        <v>19.04982308953885</v>
       </c>
       <c r="T17" t="n">
-        <v>55.80849427988832</v>
+        <v>55.80849427988821</v>
       </c>
       <c r="U17" t="n">
-        <v>86.02962039673528</v>
+        <v>86.02962039673517</v>
       </c>
       <c r="V17" t="n">
-        <v>167.3026188366075</v>
+        <v>167.3026188366073</v>
       </c>
       <c r="W17" t="n">
-        <v>192.6027183145644</v>
+        <v>192.6027183145642</v>
       </c>
       <c r="X17" t="n">
-        <v>211.902976547311</v>
+        <v>211.9029765473109</v>
       </c>
       <c r="Y17" t="n">
-        <v>223.2995743435097</v>
+        <v>223.2995743435096</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I18" t="n">
-        <v>67.69846245683961</v>
+        <v>50.4660104120293</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1980,7 +1980,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V18" t="n">
-        <v>208.8792142813402</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W18" t="n">
         <v>238.9027100790231</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.41295247112541</v>
+        <v>15.41295247112529</v>
       </c>
       <c r="C19" t="n">
-        <v>1.61294731652589</v>
+        <v>1.612947316525776</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9236886194178737</v>
+        <v>0.92368861941776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>45.2658024439387</v>
+        <v>45.26580244393858</v>
       </c>
       <c r="T19" t="n">
-        <v>64.54030112606733</v>
+        <v>64.54030112606722</v>
       </c>
       <c r="U19" t="n">
-        <v>118.0114745893805</v>
+        <v>118.0114745893804</v>
       </c>
       <c r="V19" t="n">
-        <v>91.821088870751</v>
+        <v>91.82108887075088</v>
       </c>
       <c r="W19" t="n">
-        <v>116.9879749413643</v>
+        <v>116.9879749413641</v>
       </c>
       <c r="X19" t="n">
-        <v>62.63307693716737</v>
+        <v>62.63307693716726</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.50794469323506</v>
+        <v>53.50794469323495</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>223.7962415964283</v>
+        <v>223.7962415964282</v>
       </c>
       <c r="C20" t="n">
-        <v>211.8075585541101</v>
+        <v>211.80755855411</v>
       </c>
       <c r="D20" t="n">
         <v>202.788862598638</v>
       </c>
       <c r="E20" t="n">
-        <v>224.5310001685436</v>
+        <v>224.5310001685435</v>
       </c>
       <c r="F20" t="n">
         <v>243.7028162565207</v>
       </c>
       <c r="G20" t="n">
-        <v>245.6360841539433</v>
+        <v>245.6360841539432</v>
       </c>
       <c r="H20" t="n">
-        <v>163.1861991322532</v>
+        <v>163.1861991322531</v>
       </c>
       <c r="I20" t="n">
-        <v>4.782164276881332</v>
+        <v>4.782164276881247</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>19.04982308953896</v>
+        <v>19.04982308953888</v>
       </c>
       <c r="T20" t="n">
-        <v>55.80849427988832</v>
+        <v>55.80849427988824</v>
       </c>
       <c r="U20" t="n">
-        <v>86.02962039673528</v>
+        <v>86.0296203967352</v>
       </c>
       <c r="V20" t="n">
-        <v>167.3026188366075</v>
+        <v>167.3026188366074</v>
       </c>
       <c r="W20" t="n">
-        <v>192.6027183145644</v>
+        <v>192.6027183145643</v>
       </c>
       <c r="X20" t="n">
-        <v>211.902976547311</v>
+        <v>211.9029765473109</v>
       </c>
       <c r="Y20" t="n">
-        <v>223.2995743435097</v>
+        <v>223.2995743435096</v>
       </c>
     </row>
     <row r="21">
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.18642621600367</v>
+        <v>41.95397417119337</v>
       </c>
       <c r="S21" t="n">
-        <v>134.0390400725773</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T21" t="n">
         <v>186.7982527956746</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.41295247112541</v>
+        <v>15.41295247112532</v>
       </c>
       <c r="C22" t="n">
-        <v>1.61294731652589</v>
+        <v>1.612947316525805</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9236886194178737</v>
+        <v>0.9236886194177885</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>45.2658024439387</v>
+        <v>45.26580244393861</v>
       </c>
       <c r="T22" t="n">
-        <v>64.54030112606733</v>
+        <v>64.54030112606725</v>
       </c>
       <c r="U22" t="n">
-        <v>118.0114745893805</v>
+        <v>118.0114745893804</v>
       </c>
       <c r="V22" t="n">
-        <v>91.821088870751</v>
+        <v>91.82108887075091</v>
       </c>
       <c r="W22" t="n">
-        <v>116.9879749413643</v>
+        <v>116.9879749413642</v>
       </c>
       <c r="X22" t="n">
-        <v>62.63307693716737</v>
+        <v>62.63307693716729</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.50794469323506</v>
+        <v>53.50794469323498</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>223.7962415964283</v>
+        <v>223.7962415964282</v>
       </c>
       <c r="C23" t="n">
-        <v>211.8075585541101</v>
+        <v>211.80755855411</v>
       </c>
       <c r="D23" t="n">
         <v>202.788862598638</v>
       </c>
       <c r="E23" t="n">
-        <v>224.5310001685436</v>
+        <v>224.5310001685435</v>
       </c>
       <c r="F23" t="n">
         <v>243.7028162565207</v>
       </c>
       <c r="G23" t="n">
-        <v>245.6360841539433</v>
+        <v>245.6360841539432</v>
       </c>
       <c r="H23" t="n">
-        <v>163.1861991322532</v>
+        <v>163.1861991322531</v>
       </c>
       <c r="I23" t="n">
-        <v>4.782164276881332</v>
+        <v>4.782164276881247</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>19.04982308953896</v>
+        <v>19.04982308953888</v>
       </c>
       <c r="T23" t="n">
-        <v>55.80849427988832</v>
+        <v>55.80849427988824</v>
       </c>
       <c r="U23" t="n">
-        <v>86.02962039673528</v>
+        <v>86.0296203967352</v>
       </c>
       <c r="V23" t="n">
-        <v>167.3026188366075</v>
+        <v>167.3026188366074</v>
       </c>
       <c r="W23" t="n">
-        <v>192.6027183145644</v>
+        <v>192.6027183145643</v>
       </c>
       <c r="X23" t="n">
-        <v>211.902976547311</v>
+        <v>211.9029765473109</v>
       </c>
       <c r="Y23" t="n">
-        <v>223.2995743435097</v>
+        <v>223.2995743435096</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
-        <v>67.69846245683961</v>
+        <v>50.4660104120293</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>41.95397417119517</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S24" t="n">
         <v>151.2714921173871</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.41295247112541</v>
+        <v>15.41295247112532</v>
       </c>
       <c r="C25" t="n">
-        <v>1.61294731652589</v>
+        <v>1.612947316525805</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9236886194178737</v>
+        <v>0.9236886194177885</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>45.2658024439387</v>
+        <v>45.26580244393861</v>
       </c>
       <c r="T25" t="n">
-        <v>64.54030112606733</v>
+        <v>64.54030112606725</v>
       </c>
       <c r="U25" t="n">
-        <v>118.0114745893805</v>
+        <v>118.0114745893804</v>
       </c>
       <c r="V25" t="n">
-        <v>91.821088870751</v>
+        <v>91.82108887075091</v>
       </c>
       <c r="W25" t="n">
-        <v>116.9879749413643</v>
+        <v>116.9879749413642</v>
       </c>
       <c r="X25" t="n">
-        <v>62.63307693716737</v>
+        <v>62.63307693716729</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.50794469323506</v>
+        <v>53.50794469323498</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>263.3161537670948</v>
       </c>
       <c r="C26" t="n">
-        <v>251.3274707247766</v>
+        <v>251.3274707247765</v>
       </c>
       <c r="D26" t="n">
         <v>242.3087747693045</v>
@@ -2573,7 +2573,7 @@
         <v>202.7061113029197</v>
       </c>
       <c r="I26" t="n">
-        <v>44.30207644754782</v>
+        <v>44.30207644754779</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.56973526020545</v>
+        <v>58.56973526020542</v>
       </c>
       <c r="T26" t="n">
-        <v>95.32840645055481</v>
+        <v>95.32840645055478</v>
       </c>
       <c r="U26" t="n">
-        <v>125.5495325674018</v>
+        <v>125.5495325674017</v>
       </c>
       <c r="V26" t="n">
         <v>206.8225310072739</v>
@@ -2618,10 +2618,10 @@
         <v>232.1226304852308</v>
       </c>
       <c r="X26" t="n">
-        <v>251.4228887179775</v>
+        <v>251.4228887179774</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.8194865141745</v>
+        <v>262.8194865141762</v>
       </c>
     </row>
     <row r="27">
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S27" t="n">
         <v>151.2714921173871</v>
@@ -2688,7 +2688,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U27" t="n">
-        <v>201.7443531921696</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V27" t="n">
         <v>226.1116663261494</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>54.93286464179189</v>
+        <v>54.93286464179187</v>
       </c>
       <c r="C28" t="n">
-        <v>41.13285948719238</v>
+        <v>41.13285948719235</v>
       </c>
       <c r="D28" t="n">
-        <v>24.75422388477077</v>
+        <v>24.75422388477074</v>
       </c>
       <c r="E28" t="n">
-        <v>23.70197374055022</v>
+        <v>23.70197374055019</v>
       </c>
       <c r="F28" t="n">
-        <v>24.16889806873652</v>
+        <v>24.1688980687365</v>
       </c>
       <c r="G28" t="n">
-        <v>40.44360079008436</v>
+        <v>40.44360079008433</v>
       </c>
       <c r="H28" t="n">
-        <v>30.99196841277478</v>
+        <v>30.99196841277475</v>
       </c>
       <c r="I28" t="n">
-        <v>15.97406359760413</v>
+        <v>15.9740635976041</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.23961321602144</v>
+        <v>21.23961321602141</v>
       </c>
       <c r="S28" t="n">
-        <v>84.78571461460518</v>
+        <v>84.78571461460515</v>
       </c>
       <c r="T28" t="n">
         <v>104.0602132967338</v>
@@ -2776,10 +2776,10 @@
         <v>156.5078871120307</v>
       </c>
       <c r="X28" t="n">
-        <v>102.1529891078339</v>
+        <v>102.1529891078338</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.02785686390155</v>
+        <v>93.02785686390152</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>202.7061113029197</v>
       </c>
       <c r="I29" t="n">
-        <v>44.30207644754782</v>
+        <v>44.30207644754783</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.56973526020545</v>
+        <v>58.56973526020546</v>
       </c>
       <c r="T29" t="n">
-        <v>95.32840645055481</v>
+        <v>95.32840645055482</v>
       </c>
       <c r="U29" t="n">
         <v>125.5495325674018</v>
@@ -2874,7 +2874,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D30" t="n">
-        <v>137.45025063969</v>
+        <v>122.8847593541866</v>
       </c>
       <c r="E30" t="n">
         <v>145.5577298436975</v>
@@ -2922,7 +2922,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T30" t="n">
-        <v>172.2327615101711</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U30" t="n">
         <v>216.3098444776729</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>54.93286464179189</v>
+        <v>54.93286464179191</v>
       </c>
       <c r="C31" t="n">
-        <v>41.13285948719238</v>
+        <v>41.13285948719239</v>
       </c>
       <c r="D31" t="n">
-        <v>24.75422388477077</v>
+        <v>24.75422388477078</v>
       </c>
       <c r="E31" t="n">
-        <v>23.70197374055022</v>
+        <v>23.70197374055023</v>
       </c>
       <c r="F31" t="n">
-        <v>24.16889806873652</v>
+        <v>24.16889806873654</v>
       </c>
       <c r="G31" t="n">
-        <v>40.44360079008436</v>
+        <v>40.44360079008437</v>
       </c>
       <c r="H31" t="n">
-        <v>30.99196841277478</v>
+        <v>30.9919684127748</v>
       </c>
       <c r="I31" t="n">
-        <v>15.97406359760413</v>
+        <v>15.97406359760414</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.23961321602144</v>
+        <v>21.23961321602145</v>
       </c>
       <c r="S31" t="n">
-        <v>84.78571461460518</v>
+        <v>84.7857146146052</v>
       </c>
       <c r="T31" t="n">
         <v>104.0602132967338</v>
@@ -3016,7 +3016,7 @@
         <v>102.1529891078339</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.02785686390155</v>
+        <v>93.02785686390156</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>253.1493782521353</v>
+        <v>253.1493782521352</v>
       </c>
       <c r="C32" t="n">
-        <v>241.160695209817</v>
+        <v>241.1606952098169</v>
       </c>
       <c r="D32" t="n">
-        <v>232.141999254345</v>
+        <v>232.1419992543449</v>
       </c>
       <c r="E32" t="n">
-        <v>253.8841368242505</v>
+        <v>253.8841368242504</v>
       </c>
       <c r="F32" t="n">
-        <v>273.0559529122277</v>
+        <v>273.0559529122276</v>
       </c>
       <c r="G32" t="n">
-        <v>274.9892208096502</v>
+        <v>274.9892208096501</v>
       </c>
       <c r="H32" t="n">
-        <v>192.5393357879601</v>
+        <v>192.53933578796</v>
       </c>
       <c r="I32" t="n">
-        <v>34.13530093258825</v>
+        <v>34.13530093258817</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>48.40295974524588</v>
+        <v>48.40295974524579</v>
       </c>
       <c r="T32" t="n">
-        <v>85.16163093559524</v>
+        <v>85.16163093559516</v>
       </c>
       <c r="U32" t="n">
-        <v>115.3827570524422</v>
+        <v>115.3827570524421</v>
       </c>
       <c r="V32" t="n">
-        <v>196.6557554923144</v>
+        <v>196.6557554923143</v>
       </c>
       <c r="W32" t="n">
-        <v>221.9558549702713</v>
+        <v>221.9558549702712</v>
       </c>
       <c r="X32" t="n">
-        <v>241.2561132030179</v>
+        <v>241.2561132030178</v>
       </c>
       <c r="Y32" t="n">
-        <v>252.6527109992167</v>
+        <v>252.6527109992166</v>
       </c>
     </row>
     <row r="33">
@@ -3114,7 +3114,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E33" t="n">
-        <v>130.9922385581941</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F33" t="n">
         <v>133.3468600696244</v>
@@ -3126,7 +3126,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I33" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133632</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>44.76608912683233</v>
+        <v>44.76608912683224</v>
       </c>
       <c r="C34" t="n">
-        <v>30.96608397223281</v>
+        <v>30.96608397223272</v>
       </c>
       <c r="D34" t="n">
-        <v>14.5874483698112</v>
+        <v>14.58744836981111</v>
       </c>
       <c r="E34" t="n">
-        <v>13.53519822559065</v>
+        <v>13.53519822559056</v>
       </c>
       <c r="F34" t="n">
-        <v>14.00212255377696</v>
+        <v>14.00212255377687</v>
       </c>
       <c r="G34" t="n">
-        <v>30.27682527512479</v>
+        <v>30.27682527512471</v>
       </c>
       <c r="H34" t="n">
-        <v>20.82519289781521</v>
+        <v>20.82519289781513</v>
       </c>
       <c r="I34" t="n">
-        <v>5.807288082644561</v>
+        <v>5.807288082644476</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>11.07283770106187</v>
+        <v>11.07283770106179</v>
       </c>
       <c r="S34" t="n">
-        <v>74.61893909964562</v>
+        <v>74.61893909964553</v>
       </c>
       <c r="T34" t="n">
-        <v>93.89343778177425</v>
+        <v>93.89343778177417</v>
       </c>
       <c r="U34" t="n">
-        <v>147.3646112450874</v>
+        <v>147.3646112450873</v>
       </c>
       <c r="V34" t="n">
-        <v>121.1742255264579</v>
+        <v>121.1742255264578</v>
       </c>
       <c r="W34" t="n">
-        <v>146.3411115970712</v>
+        <v>146.3411115970711</v>
       </c>
       <c r="X34" t="n">
-        <v>91.98621359287429</v>
+        <v>91.98621359287421</v>
       </c>
       <c r="Y34" t="n">
-        <v>82.86108134894198</v>
+        <v>82.86108134894189</v>
       </c>
     </row>
     <row r="35">
@@ -3360,7 +3360,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H36" t="n">
-        <v>84.37298759326568</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
         <v>67.69846245683961</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050007</v>
       </c>
       <c r="S36" t="n">
         <v>151.2714921173871</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S39" t="n">
         <v>151.2714921173871</v>
@@ -3639,7 +3639,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V39" t="n">
-        <v>211.5461750406456</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W39" t="n">
         <v>238.9027100790231</v>
@@ -3740,25 +3740,25 @@
         <v>255.6521207349867</v>
       </c>
       <c r="C41" t="n">
-        <v>243.6634376926684</v>
+        <v>0.172333059850157</v>
       </c>
       <c r="D41" t="n">
         <v>234.6447417371964</v>
       </c>
       <c r="E41" t="n">
-        <v>58.7076162805335</v>
+        <v>256.3868793071019</v>
       </c>
       <c r="F41" t="n">
         <v>275.5586953950791</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>277.4919632925016</v>
       </c>
       <c r="H41" t="n">
-        <v>195.0420782708115</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>36.63804341543968</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>50.90570222809731</v>
+        <v>50.90570222809728</v>
       </c>
       <c r="T41" t="n">
-        <v>87.66437341844667</v>
+        <v>87.66437341844664</v>
       </c>
       <c r="U41" t="n">
         <v>117.8854995352936</v>
@@ -3834,7 +3834,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H42" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326568</v>
       </c>
       <c r="I42" t="n">
         <v>67.69846245683961</v>
@@ -3882,7 +3882,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X42" t="n">
-        <v>181.3723269554799</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y42" t="n">
         <v>190.5961130869169</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.26883160968376</v>
+        <v>47.26883160968373</v>
       </c>
       <c r="C43" t="n">
-        <v>33.46882645508424</v>
+        <v>33.46882645508421</v>
       </c>
       <c r="D43" t="n">
-        <v>17.09019085266263</v>
+        <v>17.0901908526626</v>
       </c>
       <c r="E43" t="n">
-        <v>16.03794070844208</v>
+        <v>16.03794070844205</v>
       </c>
       <c r="F43" t="n">
-        <v>16.50486503662839</v>
+        <v>16.50486503662836</v>
       </c>
       <c r="G43" t="n">
-        <v>32.77956775797622</v>
+        <v>32.7795677579762</v>
       </c>
       <c r="H43" t="n">
-        <v>23.32793538066664</v>
+        <v>23.32793538066662</v>
       </c>
       <c r="I43" t="n">
-        <v>8.310030565495993</v>
+        <v>8.310030565495964</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>13.5755801839133</v>
+        <v>13.57558018391327</v>
       </c>
       <c r="S43" t="n">
-        <v>77.12168158249705</v>
+        <v>77.12168158249702</v>
       </c>
       <c r="T43" t="n">
-        <v>96.39618026462568</v>
+        <v>96.39618026462566</v>
       </c>
       <c r="U43" t="n">
         <v>149.8673537279388</v>
@@ -3961,10 +3961,10 @@
         <v>148.8438540799226</v>
       </c>
       <c r="X43" t="n">
-        <v>94.48895607572572</v>
+        <v>94.4889560757257</v>
       </c>
       <c r="Y43" t="n">
-        <v>85.36382383179341</v>
+        <v>85.36382383179338</v>
       </c>
     </row>
     <row r="44">
@@ -3974,19 +3974,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>255.6521207349867</v>
+        <v>255.6521207349866</v>
       </c>
       <c r="C44" t="n">
         <v>243.6634376926684</v>
       </c>
       <c r="D44" t="n">
-        <v>234.6447417371964</v>
+        <v>234.6447417371963</v>
       </c>
       <c r="E44" t="n">
-        <v>75.8802109019984</v>
+        <v>256.3868793071019</v>
       </c>
       <c r="F44" t="n">
-        <v>275.5586953950791</v>
+        <v>55.54292255807772</v>
       </c>
       <c r="G44" t="n">
         <v>277.4919632925016</v>
@@ -3995,7 +3995,7 @@
         <v>195.0420782708115</v>
       </c>
       <c r="I44" t="n">
-        <v>36.63804341543968</v>
+        <v>36.63804341543963</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>50.90570222809725</v>
       </c>
       <c r="T44" t="n">
-        <v>87.66437341844667</v>
+        <v>87.66437341844662</v>
       </c>
       <c r="U44" t="n">
         <v>117.8854995352936</v>
       </c>
       <c r="V44" t="n">
-        <v>199.1584979751658</v>
+        <v>199.1584979751657</v>
       </c>
       <c r="W44" t="n">
-        <v>224.4585974531227</v>
+        <v>224.4585974531226</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>243.7588556858693</v>
       </c>
       <c r="Y44" t="n">
-        <v>255.1554534820681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4065,7 +4065,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F45" t="n">
-        <v>118.7813687841207</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
         <v>127.4412149769483</v>
@@ -4074,7 +4074,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I45" t="n">
-        <v>67.69846245683961</v>
+        <v>53.1329711713359</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.26883160968376</v>
+        <v>47.2688316096837</v>
       </c>
       <c r="C46" t="n">
-        <v>33.46882645508424</v>
+        <v>33.46882645508418</v>
       </c>
       <c r="D46" t="n">
-        <v>17.09019085266263</v>
+        <v>17.09019085266257</v>
       </c>
       <c r="E46" t="n">
-        <v>16.03794070844208</v>
+        <v>16.03794070844202</v>
       </c>
       <c r="F46" t="n">
-        <v>16.50486503662839</v>
+        <v>16.50486503662833</v>
       </c>
       <c r="G46" t="n">
-        <v>32.77956775797622</v>
+        <v>32.77956775797617</v>
       </c>
       <c r="H46" t="n">
-        <v>23.32793538066664</v>
+        <v>23.32793538066659</v>
       </c>
       <c r="I46" t="n">
-        <v>8.310030565495993</v>
+        <v>8.310030565495936</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>13.5755801839133</v>
+        <v>13.57558018391325</v>
       </c>
       <c r="S46" t="n">
-        <v>77.12168158249705</v>
+        <v>77.12168158249699</v>
       </c>
       <c r="T46" t="n">
-        <v>96.39618026462568</v>
+        <v>96.39618026462563</v>
       </c>
       <c r="U46" t="n">
         <v>149.8673537279388</v>
@@ -4198,10 +4198,10 @@
         <v>148.8438540799226</v>
       </c>
       <c r="X46" t="n">
-        <v>94.48895607572572</v>
+        <v>94.48895607572567</v>
       </c>
       <c r="Y46" t="n">
-        <v>85.36382383179341</v>
+        <v>85.36382383179335</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>981.2260651580933</v>
+        <v>711.760234024151</v>
       </c>
       <c r="C2" t="n">
-        <v>981.2260651580933</v>
+        <v>566.6933830773364</v>
       </c>
       <c r="D2" t="n">
-        <v>608.4021003853169</v>
+        <v>566.6933830773364</v>
       </c>
       <c r="E2" t="n">
-        <v>213.6163804914237</v>
+        <v>566.6933830773364</v>
       </c>
       <c r="F2" t="n">
-        <v>50.94412323401612</v>
+        <v>556.5825964279109</v>
       </c>
       <c r="G2" t="n">
-        <v>38.88054072860816</v>
+        <v>544.5190139225028</v>
       </c>
       <c r="H2" t="n">
-        <v>38.88054072860816</v>
+        <v>211.6977395198121</v>
       </c>
       <c r="I2" t="n">
-        <v>38.88054072860816</v>
+        <v>38.88054072860815</v>
       </c>
       <c r="J2" t="n">
-        <v>38.88054072860816</v>
+        <v>110.8790850014138</v>
       </c>
       <c r="K2" t="n">
-        <v>279.0209127733909</v>
+        <v>351.0194570461966</v>
       </c>
       <c r="L2" t="n">
-        <v>626.9062858583372</v>
+        <v>544.8627768741796</v>
       </c>
       <c r="M2" t="n">
-        <v>1020.145452111425</v>
+        <v>938.1019431272675</v>
       </c>
       <c r="N2" t="n">
-        <v>1398.476810799141</v>
+        <v>1316.433301814983</v>
       </c>
       <c r="O2" t="n">
-        <v>1621.437886287818</v>
+        <v>1621.437886287817</v>
       </c>
       <c r="P2" t="n">
-        <v>1849.594782743871</v>
+        <v>1849.59478274387</v>
       </c>
       <c r="Q2" t="n">
-        <v>1944.027036430408</v>
+        <v>1944.027036430407</v>
       </c>
       <c r="R2" t="n">
-        <v>1944.027036430408</v>
+        <v>1853.388749926261</v>
       </c>
       <c r="S2" t="n">
-        <v>1756.798061060762</v>
+        <v>1666.159774556615</v>
       </c>
       <c r="T2" t="n">
-        <v>1756.798061060762</v>
+        <v>1666.159774556615</v>
       </c>
       <c r="U2" t="n">
-        <v>1756.798061060762</v>
+        <v>1411.274438270609</v>
       </c>
       <c r="V2" t="n">
-        <v>1756.798061060762</v>
+        <v>1074.29516416655</v>
       </c>
       <c r="W2" t="n">
-        <v>1756.798061060762</v>
+        <v>711.760234024151</v>
       </c>
       <c r="X2" t="n">
-        <v>1374.767920582255</v>
+        <v>711.760234024151</v>
       </c>
       <c r="Y2" t="n">
-        <v>981.2260651580933</v>
+        <v>711.760234024151</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>918.1933012306523</v>
+        <v>611.0345214576233</v>
       </c>
       <c r="C3" t="n">
-        <v>756.489628471607</v>
+        <v>449.330848698578</v>
       </c>
       <c r="D3" t="n">
-        <v>617.6509914618191</v>
+        <v>449.330848698578</v>
       </c>
       <c r="E3" t="n">
-        <v>470.6229815186903</v>
+        <v>302.3028387554492</v>
       </c>
       <c r="F3" t="n">
-        <v>335.9291834685646</v>
+        <v>167.6090407053236</v>
       </c>
       <c r="G3" t="n">
-        <v>207.2006834918491</v>
+        <v>38.88054072860815</v>
       </c>
       <c r="H3" t="n">
-        <v>107.2628260385472</v>
+        <v>38.88054072860815</v>
       </c>
       <c r="I3" t="n">
-        <v>38.88054072860816</v>
+        <v>38.88054072860815</v>
       </c>
       <c r="J3" t="n">
-        <v>99.1346872617143</v>
+        <v>38.88054072860815</v>
       </c>
       <c r="K3" t="n">
-        <v>328.6252398219029</v>
+        <v>268.3710932887968</v>
       </c>
       <c r="L3" t="n">
-        <v>694.4470849920185</v>
+        <v>634.1929384589125</v>
       </c>
       <c r="M3" t="n">
-        <v>1175.593776508545</v>
+        <v>1091.959536584965</v>
       </c>
       <c r="N3" t="n">
-        <v>1656.740468025071</v>
+        <v>1091.959536584965</v>
       </c>
       <c r="O3" t="n">
-        <v>1656.740468025071</v>
+        <v>1484.159487369116</v>
       </c>
       <c r="P3" t="n">
-        <v>1786.255406644814</v>
+        <v>1786.255406644813</v>
       </c>
       <c r="Q3" t="n">
-        <v>1944.027036430408</v>
+        <v>1944.027036430407</v>
       </c>
       <c r="R3" t="n">
-        <v>1944.027036430408</v>
+        <v>1944.027036430407</v>
       </c>
       <c r="S3" t="n">
-        <v>1944.027036430408</v>
+        <v>1791.227549443148</v>
       </c>
       <c r="T3" t="n">
-        <v>1944.027036430408</v>
+        <v>1602.542445609133</v>
       </c>
       <c r="U3" t="n">
-        <v>1937.762549802896</v>
+        <v>1384.047653207443</v>
       </c>
       <c r="V3" t="n">
-        <v>1709.36692725123</v>
+        <v>1155.652030655777</v>
       </c>
       <c r="W3" t="n">
-        <v>1468.05105848454</v>
+        <v>1001.47283593025</v>
       </c>
       <c r="X3" t="n">
-        <v>1270.134070362334</v>
+        <v>803.5558478080445</v>
       </c>
       <c r="Y3" t="n">
-        <v>1077.612744011913</v>
+        <v>611.0345214576233</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>342.4562303466558</v>
+        <v>38.88054072860815</v>
       </c>
       <c r="C4" t="n">
-        <v>342.4562303466558</v>
+        <v>38.88054072860815</v>
       </c>
       <c r="D4" t="n">
-        <v>342.4562303466558</v>
+        <v>38.88054072860815</v>
       </c>
       <c r="E4" t="n">
-        <v>342.4562303466558</v>
+        <v>38.88054072860815</v>
       </c>
       <c r="F4" t="n">
-        <v>342.4562303466558</v>
+        <v>38.88054072860815</v>
       </c>
       <c r="G4" t="n">
-        <v>342.4562303466558</v>
+        <v>38.88054072860815</v>
       </c>
       <c r="H4" t="n">
-        <v>183.0835851259297</v>
+        <v>38.88054072860815</v>
       </c>
       <c r="I4" t="n">
-        <v>38.88054072860816</v>
+        <v>38.88054072860815</v>
       </c>
       <c r="J4" t="n">
-        <v>38.88054072860816</v>
+        <v>38.88054072860815</v>
       </c>
       <c r="K4" t="n">
-        <v>72.48472847325158</v>
+        <v>72.48472847325155</v>
       </c>
       <c r="L4" t="n">
         <v>173.0918078735111</v>
@@ -4513,25 +4513,25 @@
         <v>570.9397859745407</v>
       </c>
       <c r="S4" t="n">
-        <v>357.2300233782282</v>
+        <v>557.3232443441325</v>
       </c>
       <c r="T4" t="n">
-        <v>342.4562303466558</v>
+        <v>557.3232443441325</v>
       </c>
       <c r="U4" t="n">
-        <v>342.4562303466558</v>
+        <v>270.1330048332324</v>
       </c>
       <c r="V4" t="n">
-        <v>342.4562303466558</v>
+        <v>270.1330048332324</v>
       </c>
       <c r="W4" t="n">
-        <v>342.4562303466558</v>
+        <v>270.1330048332324</v>
       </c>
       <c r="X4" t="n">
-        <v>342.4562303466558</v>
+        <v>38.88054072860815</v>
       </c>
       <c r="Y4" t="n">
-        <v>342.4562303466558</v>
+        <v>38.88054072860815</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61.05490988344174</v>
+        <v>615.8058673418384</v>
       </c>
       <c r="C5" t="n">
-        <v>61.05490988344174</v>
+        <v>233.8721086746457</v>
       </c>
       <c r="D5" t="n">
-        <v>61.05490988344174</v>
+        <v>233.8721086746457</v>
       </c>
       <c r="E5" t="n">
-        <v>61.05490988344174</v>
+        <v>233.8721086746457</v>
       </c>
       <c r="F5" t="n">
-        <v>50.94412323401612</v>
+        <v>223.7613220252201</v>
       </c>
       <c r="G5" t="n">
-        <v>38.88054072860816</v>
+        <v>211.6977395198121</v>
       </c>
       <c r="H5" t="n">
-        <v>38.88054072860816</v>
+        <v>211.6977395198121</v>
       </c>
       <c r="I5" t="n">
-        <v>38.88054072860816</v>
+        <v>38.88054072860813</v>
       </c>
       <c r="J5" t="n">
         <v>110.8790850014138</v>
       </c>
       <c r="K5" t="n">
-        <v>196.9774037892343</v>
+        <v>351.0194570461965</v>
       </c>
       <c r="L5" t="n">
-        <v>544.8627768741806</v>
+        <v>698.9048301311427</v>
       </c>
       <c r="M5" t="n">
-        <v>938.1019431272684</v>
+        <v>1092.143996384231</v>
       </c>
       <c r="N5" t="n">
-        <v>1316.433301814984</v>
+        <v>1316.433301814982</v>
       </c>
       <c r="O5" t="n">
-        <v>1621.437886287818</v>
+        <v>1621.437886287816</v>
       </c>
       <c r="P5" t="n">
-        <v>1849.594782743871</v>
+        <v>1849.594782743869</v>
       </c>
       <c r="Q5" t="n">
-        <v>1944.027036430408</v>
+        <v>1944.027036430406</v>
       </c>
       <c r="R5" t="n">
-        <v>1853.388749926261</v>
+        <v>1944.027036430406</v>
       </c>
       <c r="S5" t="n">
-        <v>1666.159774556616</v>
+        <v>1944.027036430406</v>
       </c>
       <c r="T5" t="n">
-        <v>1441.800828287627</v>
+        <v>1719.668090161418</v>
       </c>
       <c r="U5" t="n">
-        <v>1441.800828287627</v>
+        <v>1719.668090161418</v>
       </c>
       <c r="V5" t="n">
-        <v>1104.821554183568</v>
+        <v>1382.688816057359</v>
       </c>
       <c r="W5" t="n">
-        <v>742.286624041169</v>
+        <v>1382.688816057359</v>
       </c>
       <c r="X5" t="n">
-        <v>360.2564835626624</v>
+        <v>1382.688816057359</v>
       </c>
       <c r="Y5" t="n">
-        <v>360.2564835626624</v>
+        <v>1009.849406859857</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556.9997309856212</v>
+        <v>507.7429932606823</v>
       </c>
       <c r="C6" t="n">
-        <v>395.296058226576</v>
+        <v>346.039320501637</v>
       </c>
       <c r="D6" t="n">
-        <v>395.296058226576</v>
+        <v>207.2006834918491</v>
       </c>
       <c r="E6" t="n">
-        <v>370.6851240653882</v>
+        <v>207.2006834918491</v>
       </c>
       <c r="F6" t="n">
-        <v>235.9913260152626</v>
+        <v>207.2006834918491</v>
       </c>
       <c r="G6" t="n">
-        <v>107.2628260385472</v>
+        <v>207.2006834918491</v>
       </c>
       <c r="H6" t="n">
-        <v>107.2628260385472</v>
+        <v>107.2628260385471</v>
       </c>
       <c r="I6" t="n">
-        <v>38.88054072860816</v>
+        <v>38.88054072860813</v>
       </c>
       <c r="J6" t="n">
-        <v>99.1346872617143</v>
+        <v>99.13468726171428</v>
       </c>
       <c r="K6" t="n">
-        <v>328.6252398219029</v>
+        <v>244.9909998983229</v>
       </c>
       <c r="L6" t="n">
-        <v>328.6252398219029</v>
+        <v>610.8128450684385</v>
       </c>
       <c r="M6" t="n">
-        <v>809.7719313384289</v>
+        <v>610.8128450684385</v>
       </c>
       <c r="N6" t="n">
-        <v>1290.918622854955</v>
+        <v>1091.959536584964</v>
       </c>
       <c r="O6" t="n">
-        <v>1484.159487369117</v>
+        <v>1484.159487369115</v>
       </c>
       <c r="P6" t="n">
-        <v>1786.255406644814</v>
+        <v>1786.255406644812</v>
       </c>
       <c r="Q6" t="n">
-        <v>1944.027036430408</v>
+        <v>1944.027036430406</v>
       </c>
       <c r="R6" t="n">
-        <v>1944.027036430408</v>
+        <v>1884.242767525352</v>
       </c>
       <c r="S6" t="n">
-        <v>1791.227549443148</v>
+        <v>1731.443280538092</v>
       </c>
       <c r="T6" t="n">
-        <v>1602.542445609133</v>
+        <v>1542.758176704078</v>
       </c>
       <c r="U6" t="n">
-        <v>1384.047653207444</v>
+        <v>1324.263384302388</v>
       </c>
       <c r="V6" t="n">
-        <v>1155.652030655777</v>
+        <v>1095.867761750722</v>
       </c>
       <c r="W6" t="n">
-        <v>914.3361618890875</v>
+        <v>1057.60075051457</v>
       </c>
       <c r="X6" t="n">
-        <v>716.4191737668821</v>
+        <v>859.6837623923644</v>
       </c>
       <c r="Y6" t="n">
-        <v>716.4191737668821</v>
+        <v>667.1624360419432</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4699,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>570.9397859745407</v>
+        <v>38.88054072860813</v>
       </c>
       <c r="C7" t="n">
-        <v>570.9397859745407</v>
+        <v>38.88054072860813</v>
       </c>
       <c r="D7" t="n">
-        <v>512.2899585736623</v>
+        <v>38.88054072860813</v>
       </c>
       <c r="E7" t="n">
-        <v>360.2809443349811</v>
+        <v>38.88054072860813</v>
       </c>
       <c r="F7" t="n">
-        <v>207.8002893607582</v>
+        <v>38.88054072860813</v>
       </c>
       <c r="G7" t="n">
-        <v>38.88054072860816</v>
+        <v>38.88054072860813</v>
       </c>
       <c r="H7" t="n">
-        <v>38.88054072860816</v>
+        <v>38.88054072860813</v>
       </c>
       <c r="I7" t="n">
-        <v>38.88054072860816</v>
+        <v>38.88054072860813</v>
       </c>
       <c r="J7" t="n">
-        <v>38.88054072860816</v>
+        <v>38.88054072860813</v>
       </c>
       <c r="K7" t="n">
-        <v>72.48472847325158</v>
+        <v>72.48472847325155</v>
       </c>
       <c r="L7" t="n">
         <v>173.0918078735111</v>
@@ -4756,19 +4756,19 @@
         <v>570.9397859745407</v>
       </c>
       <c r="U7" t="n">
-        <v>570.9397859745407</v>
+        <v>299.6158451701855</v>
       </c>
       <c r="V7" t="n">
-        <v>570.9397859745407</v>
+        <v>38.88054072860813</v>
       </c>
       <c r="W7" t="n">
-        <v>570.9397859745407</v>
+        <v>38.88054072860813</v>
       </c>
       <c r="X7" t="n">
-        <v>570.9397859745407</v>
+        <v>38.88054072860813</v>
       </c>
       <c r="Y7" t="n">
-        <v>570.9397859745407</v>
+        <v>38.88054072860813</v>
       </c>
     </row>
     <row r="8">
@@ -4829,25 +4829,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>2101.212805059961</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T8" t="n">
-        <v>2101.212805059961</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="U8" t="n">
-        <v>1846.327468773955</v>
+        <v>1659.098493404309</v>
       </c>
       <c r="V8" t="n">
-        <v>1584.74099406215</v>
+        <v>1322.119219300251</v>
       </c>
       <c r="W8" t="n">
-        <v>1222.206063919751</v>
+        <v>959.5842891578518</v>
       </c>
       <c r="X8" t="n">
-        <v>840.1759234412445</v>
+        <v>577.5541486793452</v>
       </c>
       <c r="Y8" t="n">
-        <v>840.1759234412445</v>
+        <v>577.5541486793452</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>740.1589656664432</v>
+        <v>650.5650081937138</v>
       </c>
       <c r="C9" t="n">
-        <v>578.455292907398</v>
+        <v>488.8613354346685</v>
       </c>
       <c r="D9" t="n">
-        <v>492.0662068576946</v>
+        <v>488.8613354346685</v>
       </c>
       <c r="E9" t="n">
-        <v>345.0381969145658</v>
+        <v>405.3844115813423</v>
       </c>
       <c r="F9" t="n">
-        <v>210.3443988644402</v>
+        <v>270.6906135312166</v>
       </c>
       <c r="G9" t="n">
-        <v>210.3443988644402</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>102.2784026343054</v>
+        <v>49.73385863501696</v>
       </c>
       <c r="K9" t="n">
-        <v>331.768955194494</v>
+        <v>279.2244111952056</v>
       </c>
       <c r="L9" t="n">
-        <v>697.5908003646097</v>
+        <v>645.0462563653213</v>
       </c>
       <c r="M9" t="n">
-        <v>1182.624153874836</v>
+        <v>1130.079609875548</v>
       </c>
       <c r="N9" t="n">
-        <v>1693.889799997958</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="O9" t="n">
-        <v>1799.116885784264</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P9" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S9" t="n">
-        <v>1948.413318072701</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T9" t="n">
-        <v>1759.728214238687</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="U9" t="n">
-        <v>1759.728214238687</v>
+        <v>1670.134256765957</v>
       </c>
       <c r="V9" t="n">
-        <v>1531.332591687021</v>
+        <v>1441.738634214291</v>
       </c>
       <c r="W9" t="n">
-        <v>1290.016722920331</v>
+        <v>1200.422765447601</v>
       </c>
       <c r="X9" t="n">
-        <v>1092.099734798125</v>
+        <v>1002.505777325396</v>
       </c>
       <c r="Y9" t="n">
-        <v>899.5784084477042</v>
+        <v>809.9844509749746</v>
       </c>
     </row>
     <row r="10">
@@ -4984,16 +4984,16 @@
         <v>574.0835013471317</v>
       </c>
       <c r="R10" t="n">
-        <v>574.0835013471317</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="S10" t="n">
-        <v>574.0835013471317</v>
+        <v>275.2032092855204</v>
       </c>
       <c r="T10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="U10" t="n">
-        <v>286.8932618362315</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="V10" t="n">
         <v>42.02425610119923</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1676.210043253623</v>
+        <v>936.4209065699465</v>
       </c>
       <c r="C11" t="n">
-        <v>1408.852209342197</v>
+        <v>669.0630726585202</v>
       </c>
       <c r="D11" t="n">
-        <v>1150.604169325187</v>
+        <v>410.8150326415102</v>
       </c>
       <c r="E11" t="n">
-        <v>870.3943741870602</v>
+        <v>410.8150326415102</v>
       </c>
       <c r="F11" t="n">
-        <v>570.8191082529969</v>
+        <v>410.8150326415102</v>
       </c>
       <c r="G11" t="n">
-        <v>269.2910464629514</v>
+        <v>109.2869708514646</v>
       </c>
       <c r="H11" t="n">
-        <v>51.04569681602709</v>
+        <v>109.2869708514646</v>
       </c>
       <c r="I11" t="n">
-        <v>51.04569681602709</v>
+        <v>51.04569681602706</v>
       </c>
       <c r="J11" t="n">
         <v>235.3401049419594</v>
       </c>
       <c r="K11" t="n">
-        <v>557.1822012035142</v>
+        <v>475.4804769867421</v>
       </c>
       <c r="L11" t="n">
-        <v>1017.363438141587</v>
+        <v>905.0675742884594</v>
       </c>
       <c r="M11" t="n">
-        <v>1410.602604394675</v>
+        <v>1298.306740541547</v>
       </c>
       <c r="N11" t="n">
-        <v>1901.229826935517</v>
+        <v>1676.638099229263</v>
       </c>
       <c r="O11" t="n">
-        <v>2206.234411408351</v>
+        <v>2093.938547555224</v>
       </c>
       <c r="P11" t="n">
-        <v>2434.391307864405</v>
+        <v>2434.391307864403</v>
       </c>
       <c r="Q11" t="n">
-        <v>2528.823561550942</v>
+        <v>2528.82356155094</v>
       </c>
       <c r="R11" t="n">
-        <v>2552.284840801354</v>
+        <v>2552.284840801353</v>
       </c>
       <c r="S11" t="n">
-        <v>2552.284840801354</v>
+        <v>2482.763455501722</v>
       </c>
       <c r="T11" t="n">
-        <v>2442.501819288132</v>
+        <v>2372.980433988499</v>
       </c>
       <c r="U11" t="n">
-        <v>2302.192407757892</v>
+        <v>2232.67102245826</v>
       </c>
       <c r="V11" t="n">
-        <v>2079.7890584096</v>
+        <v>2010.267673109968</v>
       </c>
       <c r="W11" t="n">
-        <v>1943.664258976363</v>
+        <v>1762.308667723335</v>
       </c>
       <c r="X11" t="n">
-        <v>1676.210043253623</v>
+        <v>1494.854452000595</v>
       </c>
       <c r="Y11" t="n">
-        <v>1676.210043253623</v>
+        <v>1215.888521332199</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>930.3584573180711</v>
+        <v>912.9519401010909</v>
       </c>
       <c r="C12" t="n">
-        <v>768.6547845590259</v>
+        <v>751.2482673420457</v>
       </c>
       <c r="D12" t="n">
-        <v>629.8161475492379</v>
+        <v>612.4096303322577</v>
       </c>
       <c r="E12" t="n">
-        <v>482.7881376061091</v>
+        <v>465.381620389129</v>
       </c>
       <c r="F12" t="n">
-        <v>348.0943395559835</v>
+        <v>330.6878223390033</v>
       </c>
       <c r="G12" t="n">
-        <v>219.3658395792681</v>
+        <v>219.365839579268</v>
       </c>
       <c r="H12" t="n">
         <v>119.4279821259661</v>
       </c>
       <c r="I12" t="n">
-        <v>51.04569681602709</v>
+        <v>51.04569681602706</v>
       </c>
       <c r="J12" t="n">
         <v>111.2998433491332</v>
@@ -5127,43 +5127,43 @@
         <v>706.6122410794376</v>
       </c>
       <c r="M12" t="n">
-        <v>1188.95169483279</v>
+        <v>1188.951694832789</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.217340955912</v>
+        <v>1700.217340955911</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.417291740063</v>
+        <v>2092.417291740062</v>
       </c>
       <c r="P12" t="n">
-        <v>2394.51321101576</v>
+        <v>2394.513211015759</v>
       </c>
       <c r="Q12" t="n">
-        <v>2552.284840801354</v>
+        <v>2552.284840801353</v>
       </c>
       <c r="R12" t="n">
-        <v>2492.5005718963</v>
+        <v>2492.500571896298</v>
       </c>
       <c r="S12" t="n">
-        <v>2357.107602126019</v>
+        <v>2339.701084909039</v>
       </c>
       <c r="T12" t="n">
-        <v>2168.422498292005</v>
+        <v>2151.015981075024</v>
       </c>
       <c r="U12" t="n">
-        <v>1949.927705890315</v>
+        <v>1932.521188673334</v>
       </c>
       <c r="V12" t="n">
-        <v>1721.532083338649</v>
+        <v>1704.125566121668</v>
       </c>
       <c r="W12" t="n">
-        <v>1480.216214571959</v>
+        <v>1462.809697354978</v>
       </c>
       <c r="X12" t="n">
-        <v>1282.299226449753</v>
+        <v>1264.892709232773</v>
       </c>
       <c r="Y12" t="n">
-        <v>1089.777900099332</v>
+        <v>1072.371382882352</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>348.6871936993208</v>
+        <v>348.6871936993205</v>
       </c>
       <c r="C13" t="n">
-        <v>293.6471489167676</v>
+        <v>293.6471489167672</v>
       </c>
       <c r="D13" t="n">
-        <v>255.1511805002967</v>
+        <v>255.1511805002963</v>
       </c>
       <c r="E13" t="n">
-        <v>217.718091017382</v>
+        <v>217.7180910173815</v>
       </c>
       <c r="F13" t="n">
-        <v>179.8133607989254</v>
+        <v>179.813360798925</v>
       </c>
       <c r="G13" t="n">
-        <v>125.469536922542</v>
+        <v>125.4695369225415</v>
       </c>
       <c r="H13" t="n">
-        <v>80.67281645758216</v>
+        <v>80.6728164575818</v>
       </c>
       <c r="I13" t="n">
-        <v>51.04569681602709</v>
+        <v>51.04569681602706</v>
       </c>
       <c r="J13" t="n">
         <v>104.4794611311845</v>
       </c>
       <c r="K13" t="n">
-        <v>250.3795127289545</v>
+        <v>250.3795127289546</v>
       </c>
       <c r="L13" t="n">
         <v>463.2824559823408</v>
@@ -5209,16 +5209,16 @@
         <v>693.5718259630692</v>
       </c>
       <c r="N13" t="n">
-        <v>924.2900315657962</v>
+        <v>924.2900315657961</v>
       </c>
       <c r="O13" t="n">
-        <v>1135.049541914613</v>
+        <v>1135.049541914612</v>
       </c>
       <c r="P13" t="n">
         <v>1310.313889495877</v>
       </c>
       <c r="Q13" t="n">
-        <v>1384.839305095484</v>
+        <v>1384.839305095483</v>
       </c>
       <c r="R13" t="n">
         <v>1349.893448465628</v>
@@ -5227,22 +5227,22 @@
         <v>1250.759610625082</v>
       </c>
       <c r="T13" t="n">
-        <v>1132.156582196528</v>
+        <v>1132.156582196527</v>
       </c>
       <c r="U13" t="n">
-        <v>959.5422674413941</v>
+        <v>959.5422674413938</v>
       </c>
       <c r="V13" t="n">
-        <v>813.3828877555831</v>
+        <v>813.3828877555828</v>
       </c>
       <c r="W13" t="n">
-        <v>641.8024110287486</v>
+        <v>641.8024110287483</v>
       </c>
       <c r="X13" t="n">
-        <v>525.1258716798907</v>
+        <v>525.1258716798905</v>
       </c>
       <c r="Y13" t="n">
-        <v>417.6666376279342</v>
+        <v>417.6666376279339</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1403.651595990624</v>
+        <v>933.2892412556973</v>
       </c>
       <c r="C14" t="n">
-        <v>1403.651595990624</v>
+        <v>827.1143524140247</v>
       </c>
       <c r="D14" t="n">
-        <v>1208.845443360624</v>
+        <v>568.8663123970147</v>
       </c>
       <c r="E14" t="n">
-        <v>928.6356482224977</v>
+        <v>568.8663123970147</v>
       </c>
       <c r="F14" t="n">
-        <v>629.0603822884345</v>
+        <v>269.2910464629514</v>
       </c>
       <c r="G14" t="n">
-        <v>327.5323204983889</v>
+        <v>269.2910464629514</v>
       </c>
       <c r="H14" t="n">
-        <v>109.2869708514647</v>
+        <v>51.04569681602706</v>
       </c>
       <c r="I14" t="n">
-        <v>51.04569681602709</v>
+        <v>51.04569681602706</v>
       </c>
       <c r="J14" t="n">
-        <v>123.0442410888327</v>
+        <v>235.3401049419594</v>
       </c>
       <c r="K14" t="n">
-        <v>363.1846131336155</v>
+        <v>557.1822012035128</v>
       </c>
       <c r="L14" t="n">
-        <v>823.3658500716883</v>
+        <v>1017.363438141586</v>
       </c>
       <c r="M14" t="n">
-        <v>1216.605016324776</v>
+        <v>1410.602604394674</v>
       </c>
       <c r="N14" t="n">
-        <v>1707.232238865619</v>
+        <v>1788.933963082389</v>
       </c>
       <c r="O14" t="n">
-        <v>2124.532687191579</v>
+        <v>2093.938547555223</v>
       </c>
       <c r="P14" t="n">
-        <v>2457.852587114817</v>
+        <v>2322.095444011276</v>
       </c>
       <c r="Q14" t="n">
-        <v>2552.284840801354</v>
+        <v>2528.82356155094</v>
       </c>
       <c r="R14" t="n">
-        <v>2552.284840801354</v>
+        <v>2552.284840801353</v>
       </c>
       <c r="S14" t="n">
-        <v>2479.631790187475</v>
+        <v>2479.631790187473</v>
       </c>
       <c r="T14" t="n">
-        <v>2369.848768674253</v>
+        <v>2369.848768674251</v>
       </c>
       <c r="U14" t="n">
-        <v>2229.539357144013</v>
+        <v>2229.539357144011</v>
       </c>
       <c r="V14" t="n">
-        <v>2229.539357144013</v>
+        <v>2007.136007795719</v>
       </c>
       <c r="W14" t="n">
-        <v>2229.539357144013</v>
+        <v>1759.177002409086</v>
       </c>
       <c r="X14" t="n">
-        <v>1962.085141421273</v>
+        <v>1491.722786686346</v>
       </c>
       <c r="Y14" t="n">
-        <v>1683.119210752877</v>
+        <v>1212.75685601795</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>930.3584573180711</v>
+        <v>912.9519401010909</v>
       </c>
       <c r="C15" t="n">
-        <v>768.6547845590259</v>
+        <v>751.2482673420457</v>
       </c>
       <c r="D15" t="n">
-        <v>629.8161475492379</v>
+        <v>612.4096303322577</v>
       </c>
       <c r="E15" t="n">
-        <v>482.7881376061091</v>
+        <v>465.381620389129</v>
       </c>
       <c r="F15" t="n">
-        <v>348.0943395559835</v>
+        <v>330.6878223390033</v>
       </c>
       <c r="G15" t="n">
-        <v>219.3658395792681</v>
+        <v>201.9593223622879</v>
       </c>
       <c r="H15" t="n">
         <v>119.4279821259661</v>
       </c>
       <c r="I15" t="n">
-        <v>51.04569681602709</v>
+        <v>51.04569681602706</v>
       </c>
       <c r="J15" t="n">
         <v>111.2998433491332</v>
       </c>
       <c r="K15" t="n">
-        <v>338.096496152448</v>
+        <v>340.7903959093219</v>
       </c>
       <c r="L15" t="n">
-        <v>703.9183413225636</v>
+        <v>706.6122410794376</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.95169483279</v>
+        <v>1191.645594589664</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.217340955912</v>
+        <v>1702.911240712786</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.417291740063</v>
+        <v>2095.111191496937</v>
       </c>
       <c r="P15" t="n">
-        <v>2394.51321101576</v>
+        <v>2397.207110772635</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.284840801354</v>
+        <v>2552.284840801353</v>
       </c>
       <c r="R15" t="n">
-        <v>2492.5005718963</v>
+        <v>2492.500571896298</v>
       </c>
       <c r="S15" t="n">
-        <v>2339.70108490904</v>
+        <v>2339.701084909039</v>
       </c>
       <c r="T15" t="n">
-        <v>2151.015981075026</v>
+        <v>2151.015981075024</v>
       </c>
       <c r="U15" t="n">
-        <v>1932.521188673336</v>
+        <v>1932.521188673334</v>
       </c>
       <c r="V15" t="n">
-        <v>1704.12556612167</v>
+        <v>1704.125566121668</v>
       </c>
       <c r="W15" t="n">
-        <v>1480.216214571959</v>
+        <v>1462.809697354978</v>
       </c>
       <c r="X15" t="n">
-        <v>1282.299226449753</v>
+        <v>1264.892709232773</v>
       </c>
       <c r="Y15" t="n">
-        <v>1089.777900099332</v>
+        <v>1072.371382882352</v>
       </c>
     </row>
     <row r="16">
@@ -5413,10 +5413,10 @@
         <v>348.6871936993209</v>
       </c>
       <c r="C16" t="n">
-        <v>293.6471489167675</v>
+        <v>293.6471489167676</v>
       </c>
       <c r="D16" t="n">
-        <v>255.1511805002967</v>
+        <v>255.1511805002968</v>
       </c>
       <c r="E16" t="n">
         <v>217.718091017382</v>
@@ -5431,25 +5431,25 @@
         <v>80.67281645758214</v>
       </c>
       <c r="I16" t="n">
-        <v>51.04569681602709</v>
+        <v>51.04569681602706</v>
       </c>
       <c r="J16" t="n">
         <v>104.4794611311844</v>
       </c>
       <c r="K16" t="n">
-        <v>250.3795127289545</v>
+        <v>250.3795127289546</v>
       </c>
       <c r="L16" t="n">
-        <v>463.2824559823406</v>
+        <v>463.2824559823408</v>
       </c>
       <c r="M16" t="n">
-        <v>693.5718259630689</v>
+        <v>693.5718259630692</v>
       </c>
       <c r="N16" t="n">
-        <v>924.290031565796</v>
+        <v>924.2900315657962</v>
       </c>
       <c r="O16" t="n">
-        <v>1135.049541914612</v>
+        <v>1135.049541914613</v>
       </c>
       <c r="P16" t="n">
         <v>1310.313889495877</v>
@@ -5467,16 +5467,16 @@
         <v>1132.156582196528</v>
       </c>
       <c r="U16" t="n">
-        <v>959.5422674413941</v>
+        <v>959.5422674413943</v>
       </c>
       <c r="V16" t="n">
-        <v>813.3828877555831</v>
+        <v>813.3828877555833</v>
       </c>
       <c r="W16" t="n">
-        <v>641.8024110287486</v>
+        <v>641.8024110287488</v>
       </c>
       <c r="X16" t="n">
-        <v>525.1258716798908</v>
+        <v>525.1258716798909</v>
       </c>
       <c r="Y16" t="n">
         <v>417.6666376279343</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1360.575681806826</v>
+        <v>1360.575681806824</v>
       </c>
       <c r="C17" t="n">
-        <v>1146.62865296429</v>
+        <v>1146.628652964289</v>
       </c>
       <c r="D17" t="n">
-        <v>941.7914180161714</v>
+        <v>941.7914180161698</v>
       </c>
       <c r="E17" t="n">
-        <v>714.9924279469354</v>
+        <v>714.992427946934</v>
       </c>
       <c r="F17" t="n">
-        <v>468.827967081763</v>
+        <v>468.8279670817616</v>
       </c>
       <c r="G17" t="n">
-        <v>220.710710360608</v>
+        <v>220.7107103606069</v>
       </c>
       <c r="H17" t="n">
-        <v>55.87616578257389</v>
+        <v>55.87616578257374</v>
       </c>
       <c r="I17" t="n">
-        <v>51.04569681602709</v>
+        <v>51.04569681602706</v>
       </c>
       <c r="J17" t="n">
         <v>123.0442410888327</v>
       </c>
       <c r="K17" t="n">
-        <v>527.828407034762</v>
+        <v>363.1846131336155</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.357574020855</v>
+        <v>711.0699862185618</v>
       </c>
       <c r="M17" t="n">
-        <v>1433.596740273943</v>
+        <v>1104.30915247165</v>
       </c>
       <c r="N17" t="n">
-        <v>1811.928098961658</v>
+        <v>1647.284305060512</v>
       </c>
       <c r="O17" t="n">
-        <v>2153.886481360331</v>
+        <v>1952.288889533346</v>
       </c>
       <c r="P17" t="n">
-        <v>2382.043377816385</v>
+        <v>2345.089579890546</v>
       </c>
       <c r="Q17" t="n">
-        <v>2476.475631502922</v>
+        <v>2552.284840801353</v>
       </c>
       <c r="R17" t="n">
-        <v>2552.284840801354</v>
+        <v>2552.284840801353</v>
       </c>
       <c r="S17" t="n">
-        <v>2533.042595256366</v>
+        <v>2533.042595256364</v>
       </c>
       <c r="T17" t="n">
-        <v>2476.670378812034</v>
+        <v>2476.670378812032</v>
       </c>
       <c r="U17" t="n">
-        <v>2389.771772350685</v>
+        <v>2389.771772350683</v>
       </c>
       <c r="V17" t="n">
-        <v>2220.779228071284</v>
+        <v>2220.779228071282</v>
       </c>
       <c r="W17" t="n">
-        <v>2026.231027753542</v>
+        <v>2026.23102775354</v>
       </c>
       <c r="X17" t="n">
-        <v>1812.187617099693</v>
+        <v>1812.187617099691</v>
       </c>
       <c r="Y17" t="n">
-        <v>1586.632491500188</v>
+        <v>1586.632491500186</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>930.3584573180711</v>
+        <v>912.9519401010909</v>
       </c>
       <c r="C18" t="n">
-        <v>768.6547845590259</v>
+        <v>751.2482673420457</v>
       </c>
       <c r="D18" t="n">
-        <v>629.8161475492379</v>
+        <v>612.4096303322577</v>
       </c>
       <c r="E18" t="n">
-        <v>482.7881376061091</v>
+        <v>465.381620389129</v>
       </c>
       <c r="F18" t="n">
-        <v>348.0943395559835</v>
+        <v>330.6878223390033</v>
       </c>
       <c r="G18" t="n">
-        <v>219.3658395792681</v>
+        <v>201.9593223622879</v>
       </c>
       <c r="H18" t="n">
-        <v>119.4279821259661</v>
+        <v>102.0214649089859</v>
       </c>
       <c r="I18" t="n">
-        <v>51.04569681602709</v>
+        <v>51.04569681602706</v>
       </c>
       <c r="J18" t="n">
-        <v>108.6059435922593</v>
+        <v>108.6059435922579</v>
       </c>
       <c r="K18" t="n">
-        <v>338.096496152448</v>
+        <v>338.0964961524466</v>
       </c>
       <c r="L18" t="n">
-        <v>703.9183413225636</v>
+        <v>703.9183413225622</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.95169483279</v>
+        <v>1188.951694832789</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.217340955912</v>
+        <v>1700.217340955911</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.417291740063</v>
+        <v>2092.417291740062</v>
       </c>
       <c r="P18" t="n">
-        <v>2394.51321101576</v>
+        <v>2394.513211015759</v>
       </c>
       <c r="Q18" t="n">
-        <v>2552.284840801354</v>
+        <v>2552.284840801353</v>
       </c>
       <c r="R18" t="n">
-        <v>2492.5005718963</v>
+        <v>2492.500571896298</v>
       </c>
       <c r="S18" t="n">
-        <v>2339.70108490904</v>
+        <v>2339.701084909039</v>
       </c>
       <c r="T18" t="n">
-        <v>2151.015981075026</v>
+        <v>2151.015981075024</v>
       </c>
       <c r="U18" t="n">
-        <v>1932.521188673336</v>
+        <v>1932.521188673334</v>
       </c>
       <c r="V18" t="n">
-        <v>1721.532083338649</v>
+        <v>1704.125566121668</v>
       </c>
       <c r="W18" t="n">
-        <v>1480.216214571959</v>
+        <v>1462.809697354978</v>
       </c>
       <c r="X18" t="n">
-        <v>1282.299226449753</v>
+        <v>1264.892709232773</v>
       </c>
       <c r="Y18" t="n">
-        <v>1089.777900099332</v>
+        <v>1072.371382882352</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.6079553371824</v>
+        <v>52.67493652968946</v>
       </c>
       <c r="C19" t="n">
-        <v>51.97871562351989</v>
+        <v>51.04569681602706</v>
       </c>
       <c r="D19" t="n">
-        <v>51.97871562351989</v>
+        <v>51.04569681602706</v>
       </c>
       <c r="E19" t="n">
-        <v>51.97871562351989</v>
+        <v>51.04569681602706</v>
       </c>
       <c r="F19" t="n">
-        <v>51.97871562351989</v>
+        <v>66.24320077693784</v>
       </c>
       <c r="G19" t="n">
-        <v>51.04569681602709</v>
+        <v>65.31018196944515</v>
       </c>
       <c r="H19" t="n">
-        <v>59.48836113633988</v>
+        <v>73.75284628975805</v>
       </c>
       <c r="I19" t="n">
-        <v>59.48836113633988</v>
+        <v>73.75284628975805</v>
       </c>
       <c r="J19" t="n">
-        <v>59.48836113633988</v>
+        <v>73.75284628975805</v>
       </c>
       <c r="K19" t="n">
-        <v>93.09254888098329</v>
+        <v>107.3570340344015</v>
       </c>
       <c r="L19" t="n">
-        <v>193.6996282812428</v>
+        <v>207.964113434661</v>
       </c>
       <c r="M19" t="n">
-        <v>311.6931344088445</v>
+        <v>325.9576195622627</v>
       </c>
       <c r="N19" t="n">
-        <v>430.1154761584449</v>
+        <v>447.0651245559438</v>
       </c>
       <c r="O19" t="n">
-        <v>564.5592858242261</v>
+        <v>545.5287710516335</v>
       </c>
       <c r="P19" t="n">
-        <v>627.5277695523639</v>
+        <v>608.4972547797713</v>
       </c>
       <c r="Q19" t="n">
-        <v>627.5277695523639</v>
+        <v>608.4972547797713</v>
       </c>
       <c r="R19" t="n">
-        <v>627.5277695523639</v>
+        <v>626.59475074487</v>
       </c>
       <c r="S19" t="n">
-        <v>581.8047367807087</v>
+        <v>580.8717179732149</v>
       </c>
       <c r="T19" t="n">
-        <v>516.6125134210447</v>
+        <v>515.679494613551</v>
       </c>
       <c r="U19" t="n">
-        <v>397.4090037348017</v>
+        <v>396.4759849273082</v>
       </c>
       <c r="V19" t="n">
-        <v>304.6604291178815</v>
+        <v>303.7274103103881</v>
       </c>
       <c r="W19" t="n">
-        <v>186.4907574599378</v>
+        <v>185.5577386524445</v>
       </c>
       <c r="X19" t="n">
-        <v>123.2250231799708</v>
+        <v>122.2920043724776</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.17659419690504</v>
+        <v>68.24357538941199</v>
       </c>
     </row>
     <row r="20">
@@ -5732,22 +5732,22 @@
         <v>1146.628652964289</v>
       </c>
       <c r="D20" t="n">
-        <v>941.7914180161705</v>
+        <v>941.7914180161702</v>
       </c>
       <c r="E20" t="n">
-        <v>714.9924279469345</v>
+        <v>714.9924279469343</v>
       </c>
       <c r="F20" t="n">
-        <v>468.827967081762</v>
+        <v>468.8279670817619</v>
       </c>
       <c r="G20" t="n">
         <v>220.7107103606072</v>
       </c>
       <c r="H20" t="n">
-        <v>55.87616578257388</v>
+        <v>55.87616578257378</v>
       </c>
       <c r="I20" t="n">
-        <v>51.04569681602707</v>
+        <v>51.04569681602706</v>
       </c>
       <c r="J20" t="n">
         <v>123.0442410888327</v>
@@ -5756,28 +5756,28 @@
         <v>363.1846131336155</v>
       </c>
       <c r="L20" t="n">
-        <v>711.0699862185618</v>
+        <v>875.7137801197083</v>
       </c>
       <c r="M20" t="n">
-        <v>1104.30915247165</v>
+        <v>1268.952946372796</v>
       </c>
       <c r="N20" t="n">
-        <v>1595.403518383636</v>
+        <v>1647.284305060512</v>
       </c>
       <c r="O20" t="n">
-        <v>1900.40810285647</v>
+        <v>1989.242687459184</v>
       </c>
       <c r="P20" t="n">
-        <v>2293.20879321367</v>
+        <v>2382.043377816383</v>
       </c>
       <c r="Q20" t="n">
-        <v>2552.284840801354</v>
+        <v>2476.47563150292</v>
       </c>
       <c r="R20" t="n">
-        <v>2552.284840801354</v>
+        <v>2552.284840801353</v>
       </c>
       <c r="S20" t="n">
-        <v>2533.042595256365</v>
+        <v>2533.042595256364</v>
       </c>
       <c r="T20" t="n">
         <v>2476.670378812033</v>
@@ -5786,13 +5786,13 @@
         <v>2389.771772350684</v>
       </c>
       <c r="V20" t="n">
-        <v>2220.779228071283</v>
+        <v>2220.779228071282</v>
       </c>
       <c r="W20" t="n">
         <v>2026.231027753541</v>
       </c>
       <c r="X20" t="n">
-        <v>1812.187617099692</v>
+        <v>1812.187617099691</v>
       </c>
       <c r="Y20" t="n">
         <v>1586.632491500187</v>
@@ -5826,7 +5826,7 @@
         <v>119.4279821259661</v>
       </c>
       <c r="I21" t="n">
-        <v>51.04569681602707</v>
+        <v>51.04569681602706</v>
       </c>
       <c r="J21" t="n">
         <v>111.2998433491332</v>
@@ -5835,25 +5835,25 @@
         <v>340.7903959093219</v>
       </c>
       <c r="L21" t="n">
-        <v>706.6122410794376</v>
+        <v>703.9183413225622</v>
       </c>
       <c r="M21" t="n">
-        <v>1191.645594589664</v>
+        <v>1188.951694832789</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.217340955912</v>
+        <v>1700.217340955911</v>
       </c>
       <c r="O21" t="n">
         <v>2092.417291740062</v>
       </c>
       <c r="P21" t="n">
-        <v>2394.51321101576</v>
+        <v>2394.513211015759</v>
       </c>
       <c r="Q21" t="n">
-        <v>2552.284840801354</v>
+        <v>2552.284840801353</v>
       </c>
       <c r="R21" t="n">
-        <v>2492.500571896299</v>
+        <v>2509.907089113279</v>
       </c>
       <c r="S21" t="n">
         <v>2357.107602126019</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.60795533718239</v>
+        <v>53.6079553371822</v>
       </c>
       <c r="C22" t="n">
-        <v>51.97871562351988</v>
+        <v>51.97871562351978</v>
       </c>
       <c r="D22" t="n">
-        <v>51.97871562351988</v>
+        <v>51.97871562351978</v>
       </c>
       <c r="E22" t="n">
-        <v>51.97871562351988</v>
+        <v>51.97871562351978</v>
       </c>
       <c r="F22" t="n">
-        <v>51.97871562351988</v>
+        <v>51.97871562351978</v>
       </c>
       <c r="G22" t="n">
-        <v>51.04569681602707</v>
+        <v>51.04569681602706</v>
       </c>
       <c r="H22" t="n">
-        <v>51.04569681602707</v>
+        <v>51.04569681602706</v>
       </c>
       <c r="I22" t="n">
-        <v>51.04569681602707</v>
+        <v>51.04569681602706</v>
       </c>
       <c r="J22" t="n">
-        <v>51.04569681602707</v>
+        <v>51.04569681602706</v>
       </c>
       <c r="K22" t="n">
-        <v>129.0727120510748</v>
+        <v>84.64988456067047</v>
       </c>
       <c r="L22" t="n">
-        <v>229.6797914513343</v>
+        <v>185.25696396093</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6732975789361</v>
+        <v>303.2504700885317</v>
       </c>
       <c r="N22" t="n">
-        <v>466.0956393285364</v>
+        <v>466.0956393285356</v>
       </c>
       <c r="O22" t="n">
-        <v>564.5592858242261</v>
+        <v>564.5592858242253</v>
       </c>
       <c r="P22" t="n">
-        <v>627.5277695523639</v>
+        <v>627.5277695523631</v>
       </c>
       <c r="Q22" t="n">
-        <v>627.5277695523639</v>
+        <v>627.5277695523631</v>
       </c>
       <c r="R22" t="n">
-        <v>627.5277695523639</v>
+        <v>627.5277695523631</v>
       </c>
       <c r="S22" t="n">
-        <v>581.8047367807087</v>
+        <v>581.8047367807079</v>
       </c>
       <c r="T22" t="n">
-        <v>516.6125134210447</v>
+        <v>516.612513421044</v>
       </c>
       <c r="U22" t="n">
-        <v>397.4090037348017</v>
+        <v>397.4090037348011</v>
       </c>
       <c r="V22" t="n">
-        <v>304.6604291178815</v>
+        <v>304.660429117881</v>
       </c>
       <c r="W22" t="n">
-        <v>186.4907574599378</v>
+        <v>186.4907574599374</v>
       </c>
       <c r="X22" t="n">
-        <v>123.2250231799707</v>
+        <v>123.2250231799704</v>
       </c>
       <c r="Y22" t="n">
-        <v>69.17659419690503</v>
+        <v>69.17659419690476</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1360.575681806826</v>
+        <v>1360.575681806825</v>
       </c>
       <c r="C23" t="n">
-        <v>1146.62865296429</v>
+        <v>1146.628652964289</v>
       </c>
       <c r="D23" t="n">
-        <v>941.791418016171</v>
+        <v>941.7914180161702</v>
       </c>
       <c r="E23" t="n">
-        <v>714.992427946935</v>
+        <v>714.9924279469343</v>
       </c>
       <c r="F23" t="n">
-        <v>468.8279670817625</v>
+        <v>468.8279670817619</v>
       </c>
       <c r="G23" t="n">
-        <v>220.7107103606077</v>
+        <v>220.7107103606072</v>
       </c>
       <c r="H23" t="n">
-        <v>55.8761657825739</v>
+        <v>55.87616578257378</v>
       </c>
       <c r="I23" t="n">
-        <v>51.0456968160271</v>
+        <v>51.04569681602706</v>
       </c>
       <c r="J23" t="n">
-        <v>123.0442410888328</v>
+        <v>287.6880349899793</v>
       </c>
       <c r="K23" t="n">
-        <v>363.1846131336155</v>
+        <v>640.5914142590323</v>
       </c>
       <c r="L23" t="n">
-        <v>748.0237841444011</v>
+        <v>1153.120581245125</v>
       </c>
       <c r="M23" t="n">
-        <v>1141.262950397489</v>
+        <v>1546.359747498213</v>
       </c>
       <c r="N23" t="n">
-        <v>1684.238102986351</v>
+        <v>1924.691106185929</v>
       </c>
       <c r="O23" t="n">
-        <v>2153.886481360332</v>
+        <v>2229.695690658762</v>
       </c>
       <c r="P23" t="n">
-        <v>2382.043377816385</v>
+        <v>2457.852587114816</v>
       </c>
       <c r="Q23" t="n">
-        <v>2476.475631502922</v>
+        <v>2552.284840801353</v>
       </c>
       <c r="R23" t="n">
-        <v>2552.284840801355</v>
+        <v>2552.284840801353</v>
       </c>
       <c r="S23" t="n">
-        <v>2533.042595256366</v>
+        <v>2533.042595256364</v>
       </c>
       <c r="T23" t="n">
-        <v>2476.670378812034</v>
+        <v>2476.670378812033</v>
       </c>
       <c r="U23" t="n">
-        <v>2389.771772350686</v>
+        <v>2389.771772350684</v>
       </c>
       <c r="V23" t="n">
-        <v>2220.779228071284</v>
+        <v>2220.779228071282</v>
       </c>
       <c r="W23" t="n">
-        <v>2026.231027753543</v>
+        <v>2026.231027753541</v>
       </c>
       <c r="X23" t="n">
-        <v>1812.187617099693</v>
+        <v>1812.187617099691</v>
       </c>
       <c r="Y23" t="n">
-        <v>1586.632491500188</v>
+        <v>1586.632491500187</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>930.3584573180711</v>
+        <v>912.9519401010909</v>
       </c>
       <c r="C24" t="n">
-        <v>768.6547845590259</v>
+        <v>751.2482673420457</v>
       </c>
       <c r="D24" t="n">
-        <v>629.8161475492379</v>
+        <v>612.4096303322577</v>
       </c>
       <c r="E24" t="n">
-        <v>482.7881376061092</v>
+        <v>465.381620389129</v>
       </c>
       <c r="F24" t="n">
-        <v>348.0943395559835</v>
+        <v>330.6878223390033</v>
       </c>
       <c r="G24" t="n">
-        <v>219.3658395792681</v>
+        <v>201.9593223622879</v>
       </c>
       <c r="H24" t="n">
-        <v>119.4279821259661</v>
+        <v>102.0214649089859</v>
       </c>
       <c r="I24" t="n">
-        <v>51.0456968160271</v>
+        <v>51.04569681602706</v>
       </c>
       <c r="J24" t="n">
-        <v>111.2998433491332</v>
+        <v>108.6059435922579</v>
       </c>
       <c r="K24" t="n">
-        <v>338.0964961524484</v>
+        <v>338.0964961524466</v>
       </c>
       <c r="L24" t="n">
-        <v>703.9183413225641</v>
+        <v>703.9183413225622</v>
       </c>
       <c r="M24" t="n">
-        <v>1188.951694832791</v>
+        <v>1188.951694832789</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.217340955913</v>
+        <v>1700.217340955911</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.417291740063</v>
+        <v>2092.417291740062</v>
       </c>
       <c r="P24" t="n">
-        <v>2394.513211015761</v>
+        <v>2394.513211015759</v>
       </c>
       <c r="Q24" t="n">
-        <v>2552.284840801355</v>
+        <v>2552.284840801353</v>
       </c>
       <c r="R24" t="n">
-        <v>2509.907089113279</v>
+        <v>2492.500571896298</v>
       </c>
       <c r="S24" t="n">
-        <v>2357.107602126019</v>
+        <v>2339.701084909039</v>
       </c>
       <c r="T24" t="n">
-        <v>2168.422498292005</v>
+        <v>2151.015981075024</v>
       </c>
       <c r="U24" t="n">
-        <v>1949.927705890315</v>
+        <v>1932.521188673334</v>
       </c>
       <c r="V24" t="n">
-        <v>1721.532083338649</v>
+        <v>1704.125566121668</v>
       </c>
       <c r="W24" t="n">
-        <v>1480.216214571959</v>
+        <v>1462.809697354978</v>
       </c>
       <c r="X24" t="n">
-        <v>1282.299226449753</v>
+        <v>1264.892709232773</v>
       </c>
       <c r="Y24" t="n">
-        <v>1089.777900099332</v>
+        <v>1072.371382882352</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.60795533718241</v>
+        <v>53.6079553371822</v>
       </c>
       <c r="C25" t="n">
-        <v>51.9787156235199</v>
+        <v>51.97871562351978</v>
       </c>
       <c r="D25" t="n">
-        <v>51.9787156235199</v>
+        <v>51.97871562351978</v>
       </c>
       <c r="E25" t="n">
-        <v>51.9787156235199</v>
+        <v>51.97871562351978</v>
       </c>
       <c r="F25" t="n">
-        <v>51.9787156235199</v>
+        <v>51.97871562351978</v>
       </c>
       <c r="G25" t="n">
-        <v>51.0456968160271</v>
+        <v>51.04569681602706</v>
       </c>
       <c r="H25" t="n">
-        <v>51.0456968160271</v>
+        <v>51.04569681602706</v>
       </c>
       <c r="I25" t="n">
-        <v>51.0456968160271</v>
+        <v>51.04569681602706</v>
       </c>
       <c r="J25" t="n">
-        <v>95.46852430643139</v>
+        <v>51.04569681602706</v>
       </c>
       <c r="K25" t="n">
-        <v>129.0727120510748</v>
+        <v>84.64988456067047</v>
       </c>
       <c r="L25" t="n">
-        <v>229.6797914513343</v>
+        <v>229.6797914513335</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6732975789361</v>
+        <v>347.6732975789353</v>
       </c>
       <c r="N25" t="n">
-        <v>466.0956393285364</v>
+        <v>466.0956393285356</v>
       </c>
       <c r="O25" t="n">
-        <v>564.5592858242261</v>
+        <v>564.5592858242253</v>
       </c>
       <c r="P25" t="n">
-        <v>627.5277695523639</v>
+        <v>627.5277695523631</v>
       </c>
       <c r="Q25" t="n">
-        <v>627.5277695523639</v>
+        <v>627.5277695523631</v>
       </c>
       <c r="R25" t="n">
-        <v>627.5277695523639</v>
+        <v>627.5277695523631</v>
       </c>
       <c r="S25" t="n">
-        <v>581.8047367807087</v>
+        <v>581.8047367807079</v>
       </c>
       <c r="T25" t="n">
-        <v>516.6125134210447</v>
+        <v>516.612513421044</v>
       </c>
       <c r="U25" t="n">
-        <v>397.4090037348017</v>
+        <v>397.4090037348011</v>
       </c>
       <c r="V25" t="n">
-        <v>304.6604291178815</v>
+        <v>304.660429117881</v>
       </c>
       <c r="W25" t="n">
-        <v>186.4907574599378</v>
+        <v>186.4907574599374</v>
       </c>
       <c r="X25" t="n">
-        <v>123.2250231799708</v>
+        <v>123.2250231799704</v>
       </c>
       <c r="Y25" t="n">
-        <v>69.17659419690504</v>
+        <v>69.17659419690476</v>
       </c>
     </row>
     <row r="26">
@@ -6209,28 +6209,28 @@
         <v>1153.607067663115</v>
       </c>
       <c r="E26" t="n">
-        <v>886.8889743911861</v>
+        <v>886.8889743911864</v>
       </c>
       <c r="F26" t="n">
-        <v>600.8054103233203</v>
+        <v>600.8054103233198</v>
       </c>
       <c r="G26" t="n">
-        <v>312.769050399472</v>
+        <v>312.7690503994718</v>
       </c>
       <c r="H26" t="n">
-        <v>108.0154026187452</v>
+        <v>108.0154026187448</v>
       </c>
       <c r="I26" t="n">
-        <v>63.26583044950467</v>
+        <v>63.26583044950466</v>
       </c>
       <c r="J26" t="n">
-        <v>260.7834555744969</v>
+        <v>260.7834555744971</v>
       </c>
       <c r="K26" t="n">
-        <v>626.4429084714661</v>
+        <v>626.4429084714666</v>
       </c>
       <c r="L26" t="n">
-        <v>1099.847362408599</v>
+        <v>1099.8473624086</v>
       </c>
       <c r="M26" t="n">
         <v>1618.605609513874</v>
@@ -6251,25 +6251,25 @@
         <v>3163.291522475233</v>
       </c>
       <c r="S26" t="n">
-        <v>3104.130173727551</v>
+        <v>3104.13017372755</v>
       </c>
       <c r="T26" t="n">
-        <v>3007.838854080526</v>
+        <v>3007.838854080525</v>
       </c>
       <c r="U26" t="n">
-        <v>2881.021144416482</v>
+        <v>2881.021144416483</v>
       </c>
       <c r="V26" t="n">
-        <v>2672.109496934387</v>
+        <v>2672.109496934388</v>
       </c>
       <c r="W26" t="n">
-        <v>2437.642193413952</v>
+        <v>2437.642193413953</v>
       </c>
       <c r="X26" t="n">
-        <v>2183.679679557409</v>
+        <v>2183.67967955741</v>
       </c>
       <c r="Y26" t="n">
-        <v>1918.205450755213</v>
+        <v>1918.205450755212</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>131.6481157594437</v>
       </c>
       <c r="I27" t="n">
-        <v>63.26583044950467</v>
+        <v>63.26583044950466</v>
       </c>
       <c r="J27" t="n">
         <v>123.5199769826108</v>
@@ -6327,13 +6327,13 @@
         <v>2567.198874191706</v>
       </c>
       <c r="R27" t="n">
-        <v>2507.414605286652</v>
+        <v>2522.127222746756</v>
       </c>
       <c r="S27" t="n">
-        <v>2354.615118299392</v>
+        <v>2369.327735759497</v>
       </c>
       <c r="T27" t="n">
-        <v>2165.930014465378</v>
+        <v>2180.642631925482</v>
       </c>
       <c r="U27" t="n">
         <v>1962.147839523792</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>266.465414269417</v>
+        <v>266.4654142694168</v>
       </c>
       <c r="C28" t="n">
-        <v>224.9170713530611</v>
+        <v>224.9170713530609</v>
       </c>
       <c r="D28" t="n">
-        <v>199.9128048027875</v>
+        <v>199.9128048027874</v>
       </c>
       <c r="E28" t="n">
-        <v>175.9714171860701</v>
+        <v>175.97141718607</v>
       </c>
       <c r="F28" t="n">
-        <v>151.558388833811</v>
+        <v>151.5583888338109</v>
       </c>
       <c r="G28" t="n">
-        <v>110.7062668236248</v>
+        <v>110.7062668236247</v>
       </c>
       <c r="H28" t="n">
-        <v>79.40124822486237</v>
+        <v>79.40124822486233</v>
       </c>
       <c r="I28" t="n">
-        <v>63.26583044950467</v>
+        <v>63.26583044950466</v>
       </c>
       <c r="J28" t="n">
-        <v>63.26583044950467</v>
+        <v>129.9228117637221</v>
       </c>
       <c r="K28" t="n">
-        <v>222.3890990463348</v>
+        <v>163.5269995083655</v>
       </c>
       <c r="L28" t="n">
-        <v>448.515259298781</v>
+        <v>389.6531597608117</v>
       </c>
       <c r="M28" t="n">
-        <v>692.0278462785693</v>
+        <v>633.1657467406002</v>
       </c>
       <c r="N28" t="n">
-        <v>894.2409977937897</v>
+        <v>877.1071693423872</v>
       </c>
       <c r="O28" t="n">
-        <v>992.7046442894793</v>
+        <v>975.5708158380769</v>
       </c>
       <c r="P28" t="n">
-        <v>1181.192208869804</v>
+        <v>1164.058380418401</v>
       </c>
       <c r="Q28" t="n">
-        <v>1181.192208869804</v>
+        <v>1181.192208869803</v>
       </c>
       <c r="R28" t="n">
-        <v>1159.738054106146</v>
+        <v>1159.738054106145</v>
       </c>
       <c r="S28" t="n">
         <v>1074.095918131797</v>
       </c>
       <c r="T28" t="n">
-        <v>968.9845915694398</v>
+        <v>968.9845915694395</v>
       </c>
       <c r="U28" t="n">
-        <v>809.8619786805034</v>
+        <v>809.8619786805032</v>
       </c>
       <c r="V28" t="n">
-        <v>677.1943008608898</v>
+        <v>677.1943008608896</v>
       </c>
       <c r="W28" t="n">
-        <v>519.1055260002527</v>
+        <v>519.1055260002524</v>
       </c>
       <c r="X28" t="n">
-        <v>415.9206885175922</v>
+        <v>415.9206885175919</v>
       </c>
       <c r="Y28" t="n">
-        <v>321.953156331833</v>
+        <v>321.9531563318328</v>
       </c>
     </row>
     <row r="29">
@@ -6461,7 +6461,7 @@
         <v>63.26583044950467</v>
       </c>
       <c r="J29" t="n">
-        <v>260.7834555744976</v>
+        <v>260.7834555744971</v>
       </c>
       <c r="K29" t="n">
         <v>626.4429084714666</v>
@@ -6494,7 +6494,7 @@
         <v>3007.838854080526</v>
       </c>
       <c r="U29" t="n">
-        <v>2881.021144416484</v>
+        <v>2881.021144416483</v>
       </c>
       <c r="V29" t="n">
         <v>2672.109496934389</v>
@@ -6506,7 +6506,7 @@
         <v>2183.679679557411</v>
       </c>
       <c r="Y29" t="n">
-        <v>1918.205450755212</v>
+        <v>1918.205450755213</v>
       </c>
     </row>
     <row r="30">
@@ -6516,10 +6516,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>942.5785909515488</v>
+        <v>927.8659734914443</v>
       </c>
       <c r="C30" t="n">
-        <v>780.8749181925035</v>
+        <v>766.162300732399</v>
       </c>
       <c r="D30" t="n">
         <v>642.0362811827156</v>
@@ -6570,22 +6570,22 @@
         <v>2354.615118299392</v>
       </c>
       <c r="T30" t="n">
-        <v>2180.642631925482</v>
+        <v>2165.930014465378</v>
       </c>
       <c r="U30" t="n">
-        <v>1962.147839523792</v>
+        <v>1947.435222063688</v>
       </c>
       <c r="V30" t="n">
-        <v>1733.752216972126</v>
+        <v>1719.039599512022</v>
       </c>
       <c r="W30" t="n">
-        <v>1492.436348205436</v>
+        <v>1477.723730745332</v>
       </c>
       <c r="X30" t="n">
-        <v>1294.519360083231</v>
+        <v>1279.806742623126</v>
       </c>
       <c r="Y30" t="n">
-        <v>1101.99803373281</v>
+        <v>1087.285416272705</v>
       </c>
     </row>
     <row r="31">
@@ -6595,49 +6595,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>266.465414269417</v>
+        <v>266.4654142694171</v>
       </c>
       <c r="C31" t="n">
         <v>224.9170713530611</v>
       </c>
       <c r="D31" t="n">
-        <v>199.9128048027875</v>
+        <v>199.9128048027876</v>
       </c>
       <c r="E31" t="n">
-        <v>175.9714171860701</v>
+        <v>175.9714171860702</v>
       </c>
       <c r="F31" t="n">
-        <v>151.558388833811</v>
+        <v>151.5583888338111</v>
       </c>
       <c r="G31" t="n">
         <v>110.7062668236248</v>
       </c>
       <c r="H31" t="n">
-        <v>79.40124822486237</v>
+        <v>79.40124822486239</v>
       </c>
       <c r="I31" t="n">
         <v>63.26583044950467</v>
       </c>
       <c r="J31" t="n">
-        <v>63.26583044950467</v>
+        <v>129.922811763722</v>
       </c>
       <c r="K31" t="n">
-        <v>222.3890990463348</v>
+        <v>163.5269995083654</v>
       </c>
       <c r="L31" t="n">
-        <v>448.515259298781</v>
+        <v>389.6531597608116</v>
       </c>
       <c r="M31" t="n">
-        <v>692.0278462785693</v>
+        <v>633.1657467406001</v>
       </c>
       <c r="N31" t="n">
-        <v>894.2409977937897</v>
+        <v>806.4923651951228</v>
       </c>
       <c r="O31" t="n">
-        <v>992.7046442894793</v>
+        <v>1030.475092542999</v>
       </c>
       <c r="P31" t="n">
-        <v>1181.192208869804</v>
+        <v>1093.443576271137</v>
       </c>
       <c r="Q31" t="n">
         <v>1181.192208869804</v>
@@ -6649,22 +6649,22 @@
         <v>1074.095918131797</v>
       </c>
       <c r="T31" t="n">
-        <v>968.9845915694398</v>
+        <v>968.98459156944</v>
       </c>
       <c r="U31" t="n">
-        <v>809.8619786805034</v>
+        <v>809.8619786805036</v>
       </c>
       <c r="V31" t="n">
-        <v>677.1943008608898</v>
+        <v>677.1943008608899</v>
       </c>
       <c r="W31" t="n">
-        <v>519.1055260002527</v>
+        <v>519.1055260002528</v>
       </c>
       <c r="X31" t="n">
-        <v>415.9206885175922</v>
+        <v>415.9206885175923</v>
       </c>
       <c r="Y31" t="n">
-        <v>321.953156331833</v>
+        <v>321.9531563318332</v>
       </c>
     </row>
     <row r="32">
@@ -6683,52 +6683,52 @@
         <v>1099.11600120487</v>
       </c>
       <c r="E32" t="n">
-        <v>842.6673781500718</v>
+        <v>842.6673781500716</v>
       </c>
       <c r="F32" t="n">
-        <v>566.8532842993368</v>
+        <v>566.8532842993367</v>
       </c>
       <c r="G32" t="n">
         <v>289.0863945926194</v>
       </c>
       <c r="H32" t="n">
-        <v>94.60221702902294</v>
+        <v>94.60221702902282</v>
       </c>
       <c r="I32" t="n">
-        <v>60.12211507691359</v>
+        <v>60.12211507691357</v>
       </c>
       <c r="J32" t="n">
-        <v>267.7048479617159</v>
+        <v>267.704847961716</v>
       </c>
       <c r="K32" t="n">
-        <v>507.8452200064987</v>
+        <v>643.4294086184955</v>
       </c>
       <c r="L32" t="n">
-        <v>991.3147817034417</v>
+        <v>1126.898970315438</v>
       </c>
       <c r="M32" t="n">
-        <v>1457.843906094553</v>
+        <v>1655.722325180523</v>
       </c>
       <c r="N32" t="n">
-        <v>1971.759453394266</v>
+        <v>2034.053683868239</v>
       </c>
       <c r="O32" t="n">
-        <v>2412.348226479096</v>
+        <v>2474.64245695307</v>
       </c>
       <c r="P32" t="n">
-        <v>2776.089311547146</v>
+        <v>2838.383542021119</v>
       </c>
       <c r="Q32" t="n">
-        <v>3006.10575384568</v>
+        <v>3006.105753845678</v>
       </c>
       <c r="R32" t="n">
-        <v>3006.10575384568</v>
+        <v>3006.105753845678</v>
       </c>
       <c r="S32" t="n">
-        <v>2957.213875315128</v>
+        <v>2957.213875315127</v>
       </c>
       <c r="T32" t="n">
-        <v>2871.192025885234</v>
+        <v>2871.192025885233</v>
       </c>
       <c r="U32" t="n">
         <v>2754.643786438322</v>
@@ -6743,7 +6743,7 @@
         <v>2088.110732230642</v>
       </c>
       <c r="Y32" t="n">
-        <v>1832.905973645574</v>
+        <v>1832.905973645575</v>
       </c>
     </row>
     <row r="33">
@@ -6762,19 +6762,19 @@
         <v>624.17994835002</v>
       </c>
       <c r="E33" t="n">
-        <v>491.8645558669957</v>
+        <v>477.1519384068912</v>
       </c>
       <c r="F33" t="n">
-        <v>357.17075781687</v>
+        <v>342.4581403567656</v>
       </c>
       <c r="G33" t="n">
-        <v>228.4422578401546</v>
+        <v>213.7296403800502</v>
       </c>
       <c r="H33" t="n">
-        <v>128.5044003868526</v>
+        <v>113.7917829267482</v>
       </c>
       <c r="I33" t="n">
-        <v>60.12211507691359</v>
+        <v>60.12211507691357</v>
       </c>
       <c r="J33" t="n">
         <v>120.3762616100197</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>191.4354073769097</v>
+        <v>191.4354073769091</v>
       </c>
       <c r="C34" t="n">
-        <v>160.1565346776846</v>
+        <v>160.1565346776841</v>
       </c>
       <c r="D34" t="n">
-        <v>145.421738344542</v>
+        <v>145.4217383445416</v>
       </c>
       <c r="E34" t="n">
-        <v>131.7498209449555</v>
+        <v>131.7498209449552</v>
       </c>
       <c r="F34" t="n">
-        <v>117.6062628098273</v>
+        <v>117.606262809827</v>
       </c>
       <c r="G34" t="n">
-        <v>87.02361101677195</v>
+        <v>87.02361101677177</v>
       </c>
       <c r="H34" t="n">
-        <v>65.98806263514042</v>
+        <v>65.98806263514032</v>
       </c>
       <c r="I34" t="n">
-        <v>60.12211507691359</v>
+        <v>60.12211507691357</v>
       </c>
       <c r="J34" t="n">
-        <v>60.12211507691359</v>
+        <v>60.12211507691357</v>
       </c>
       <c r="K34" t="n">
-        <v>229.3104914335536</v>
+        <v>229.3104914335538</v>
       </c>
       <c r="L34" t="n">
-        <v>344.720614698096</v>
+        <v>382.4910629516136</v>
       </c>
       <c r="M34" t="n">
-        <v>462.7141208256977</v>
+        <v>500.4845690792154</v>
       </c>
       <c r="N34" t="n">
-        <v>716.7206511872947</v>
+        <v>618.9069108288157</v>
       </c>
       <c r="O34" t="n">
-        <v>815.1842976829844</v>
+        <v>852.9547459365021</v>
       </c>
       <c r="P34" t="n">
-        <v>1013.736970023119</v>
+        <v>915.92322966464</v>
       </c>
       <c r="Q34" t="n">
-        <v>1013.736970023119</v>
+        <v>1013.736970023117</v>
       </c>
       <c r="R34" t="n">
-        <v>1002.552285476592</v>
+        <v>1002.55228547659</v>
       </c>
       <c r="S34" t="n">
-        <v>927.1796197193739</v>
+        <v>927.1796197193726</v>
       </c>
       <c r="T34" t="n">
-        <v>832.3377633741474</v>
+        <v>832.3377633741461</v>
       </c>
       <c r="U34" t="n">
-        <v>683.4846207023419</v>
+        <v>683.4846207023407</v>
       </c>
       <c r="V34" t="n">
-        <v>561.0864130998591</v>
+        <v>561.0864130998581</v>
       </c>
       <c r="W34" t="n">
-        <v>413.2671084563528</v>
+        <v>413.2671084563519</v>
       </c>
       <c r="X34" t="n">
-        <v>320.3517411908232</v>
+        <v>320.3517411908224</v>
       </c>
       <c r="Y34" t="n">
-        <v>236.6536792221949</v>
+        <v>236.6536792221942</v>
       </c>
     </row>
     <row r="35">
@@ -6932,31 +6932,31 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I35" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J35" t="n">
-        <v>163.2749745479474</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K35" t="n">
-        <v>567.8831210837625</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L35" t="n">
-        <v>915.7684941687087</v>
+        <v>875.5927382556529</v>
       </c>
       <c r="M35" t="n">
-        <v>1309.007660421797</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N35" t="n">
-        <v>1851.806793600545</v>
+        <v>1811.631037687489</v>
       </c>
       <c r="O35" t="n">
-        <v>2156.811378073378</v>
+        <v>2116.635622160323</v>
       </c>
       <c r="P35" t="n">
-        <v>2384.968274529432</v>
+        <v>2344.792518616376</v>
       </c>
       <c r="Q35" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R35" t="n">
         <v>2555.033718104287</v>
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>915.7008174040254</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C36" t="n">
-        <v>753.9971446449802</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D36" t="n">
-        <v>615.1585076351922</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E36" t="n">
-        <v>468.1304976920634</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F36" t="n">
-        <v>333.4366996419378</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G36" t="n">
-        <v>204.7081996652224</v>
+        <v>219.4208171253267</v>
       </c>
       <c r="H36" t="n">
         <v>119.4829596720247</v>
       </c>
       <c r="I36" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J36" t="n">
-        <v>111.3548208951919</v>
+        <v>111.354820895192</v>
       </c>
       <c r="K36" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L36" t="n">
-        <v>706.6672186254962</v>
+        <v>706.6672186254963</v>
       </c>
       <c r="M36" t="n">
         <v>1191.700572135723</v>
@@ -7038,28 +7038,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R36" t="n">
-        <v>2495.249449199233</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S36" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T36" t="n">
-        <v>2153.764858377959</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U36" t="n">
-        <v>1935.270065976269</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V36" t="n">
-        <v>1706.874443424603</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W36" t="n">
-        <v>1465.558574657913</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X36" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y36" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.02211951749089</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C37" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D37" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="E37" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="F37" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G37" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H37" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I37" t="n">
-        <v>74.23504503930332</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J37" t="n">
-        <v>74.23504503930332</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K37" t="n">
-        <v>107.8392327839467</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L37" t="n">
-        <v>208.4463121842062</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M37" t="n">
-        <v>326.439818311808</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N37" t="n">
-        <v>444.8621600614084</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O37" t="n">
-        <v>543.3258065570981</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P37" t="n">
-        <v>606.2942902852359</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q37" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R37" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S37" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T37" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U37" t="n">
-        <v>398.7211345007348</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V37" t="n">
-        <v>305.7929665666896</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W37" t="n">
-        <v>187.443701591621</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X37" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.77035169433844</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7169,22 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I38" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J38" t="n">
-        <v>287.5669931259238</v>
+        <v>238.9081644362653</v>
       </c>
       <c r="K38" t="n">
         <v>643.5163109720804</v>
       </c>
       <c r="L38" t="n">
-        <v>991.4016840570266</v>
+        <v>991.4016840570267</v>
       </c>
       <c r="M38" t="n">
-        <v>1384.640850310115</v>
+        <v>1549.108624801147</v>
       </c>
       <c r="N38" t="n">
-        <v>1762.97220899783</v>
+        <v>1927.439983488863</v>
       </c>
       <c r="O38" t="n">
         <v>2232.444567961697</v>
@@ -7248,13 +7248,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I39" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J39" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K39" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L39" t="n">
         <v>706.6672186254962</v>
@@ -7275,16 +7275,16 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R39" t="n">
-        <v>2495.249449199232</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S39" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T39" t="n">
-        <v>2153.764858377958</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U39" t="n">
-        <v>1935.270065976268</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V39" t="n">
         <v>1721.587060884707</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C40" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D40" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="E40" t="n">
-        <v>52.21328648670347</v>
+        <v>66.5844139977867</v>
       </c>
       <c r="F40" t="n">
-        <v>52.21328648670347</v>
+        <v>66.5844139977867</v>
       </c>
       <c r="G40" t="n">
-        <v>51.10067436208574</v>
+        <v>65.47180187316897</v>
       </c>
       <c r="H40" t="n">
-        <v>51.10067436208574</v>
+        <v>65.47180187316897</v>
       </c>
       <c r="I40" t="n">
-        <v>51.10067436208574</v>
+        <v>88.60617255038656</v>
       </c>
       <c r="J40" t="n">
-        <v>51.10067436208574</v>
+        <v>88.60617255038656</v>
       </c>
       <c r="K40" t="n">
-        <v>84.70486210672915</v>
+        <v>129.8110106437649</v>
       </c>
       <c r="L40" t="n">
-        <v>213.6092256136577</v>
+        <v>230.4180900440244</v>
       </c>
       <c r="M40" t="n">
-        <v>331.6027317412594</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N40" t="n">
-        <v>450.0250734908598</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O40" t="n">
-        <v>548.4887199865494</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P40" t="n">
-        <v>611.4572037146872</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q40" t="n">
-        <v>611.4572037146872</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S40" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T40" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U40" t="n">
-        <v>398.7211345007349</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V40" t="n">
-        <v>305.7929665666898</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W40" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X40" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972072</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1105.90331354565</v>
+        <v>1105.903313545651</v>
       </c>
       <c r="C41" t="n">
-        <v>859.7786290076012</v>
+        <v>1105.729239747822</v>
       </c>
       <c r="D41" t="n">
-        <v>622.7637383639685</v>
+        <v>868.7143491041895</v>
       </c>
       <c r="E41" t="n">
-        <v>563.4631158583791</v>
+        <v>609.73770333944</v>
       </c>
       <c r="F41" t="n">
-        <v>285.1209992976931</v>
+        <v>331.395586778754</v>
       </c>
       <c r="G41" t="n">
-        <v>285.1209992976931</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H41" t="n">
-        <v>88.10879902414602</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I41" t="n">
         <v>51.10067436208573</v>
@@ -7412,19 +7412,19 @@
         <v>256.2056921888652</v>
       </c>
       <c r="K41" t="n">
-        <v>629.4525377876216</v>
+        <v>496.3460642336479</v>
       </c>
       <c r="L41" t="n">
-        <v>1110.444384426542</v>
+        <v>845.3846224888518</v>
       </c>
       <c r="M41" t="n">
-        <v>1504.836735849887</v>
+        <v>1238.62378874194</v>
       </c>
       <c r="N41" t="n">
-        <v>1883.168094537603</v>
+        <v>1750.061620983629</v>
       </c>
       <c r="O41" t="n">
-        <v>2188.172679010437</v>
+        <v>2055.066205456463</v>
       </c>
       <c r="P41" t="n">
         <v>2416.32957546649</v>
@@ -7442,7 +7442,7 @@
         <v>2415.06394472394</v>
       </c>
       <c r="U41" t="n">
-        <v>2295.987682567077</v>
+        <v>2295.987682567078</v>
       </c>
       <c r="V41" t="n">
         <v>2094.817482592162</v>
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C42" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D42" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E42" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F42" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G42" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H42" t="n">
         <v>119.4829596720247</v>
@@ -7530,10 +7530,10 @@
         <v>1465.558574657913</v>
       </c>
       <c r="X42" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y42" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>200.1101256317385</v>
+        <v>200.1101256317383</v>
       </c>
       <c r="C43" t="n">
-        <v>166.3032302225625</v>
+        <v>166.3032302225623</v>
       </c>
       <c r="D43" t="n">
-        <v>149.0404111794689</v>
+        <v>149.0404111794687</v>
       </c>
       <c r="E43" t="n">
-        <v>132.8404710699314</v>
+        <v>132.8404710699313</v>
       </c>
       <c r="F43" t="n">
         <v>116.1688902248522</v>
       </c>
       <c r="G43" t="n">
-        <v>83.05821572184597</v>
+        <v>83.05821572184591</v>
       </c>
       <c r="H43" t="n">
-        <v>59.49464463026349</v>
+        <v>59.49464463026347</v>
       </c>
       <c r="I43" t="n">
         <v>51.10067436208573</v>
@@ -7570,49 +7570,49 @@
         <v>51.10067436208573</v>
       </c>
       <c r="K43" t="n">
-        <v>84.70486210672914</v>
+        <v>185.1598627578145</v>
       </c>
       <c r="L43" t="n">
-        <v>185.3119415069887</v>
+        <v>285.766942158074</v>
       </c>
       <c r="M43" t="n">
-        <v>436.4119211885641</v>
+        <v>536.8669218396495</v>
       </c>
       <c r="N43" t="n">
-        <v>655.2892635892504</v>
+        <v>788.3957371432236</v>
       </c>
       <c r="O43" t="n">
-        <v>886.8593836389138</v>
+        <v>886.8593836389133</v>
       </c>
       <c r="P43" t="n">
-        <v>949.8278673670516</v>
+        <v>949.8278673670511</v>
       </c>
       <c r="Q43" t="n">
-        <v>1045.163892667506</v>
+        <v>1045.163892667505</v>
       </c>
       <c r="R43" t="n">
-        <v>1031.451185411028</v>
+        <v>1031.451185411027</v>
       </c>
       <c r="S43" t="n">
-        <v>953.5504969438591</v>
+        <v>953.5504969438588</v>
       </c>
       <c r="T43" t="n">
-        <v>856.1806178886817</v>
+        <v>856.1806178886814</v>
       </c>
       <c r="U43" t="n">
-        <v>704.7994525069253</v>
+        <v>704.7994525069249</v>
       </c>
       <c r="V43" t="n">
-        <v>579.8732221944915</v>
+        <v>579.8732221944913</v>
       </c>
       <c r="W43" t="n">
-        <v>429.5258948410344</v>
+        <v>429.5258948410341</v>
       </c>
       <c r="X43" t="n">
-        <v>334.0825048655538</v>
+        <v>334.0825048655536</v>
       </c>
       <c r="Y43" t="n">
-        <v>247.8564201869746</v>
+        <v>247.8564201869744</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1403.544281135516</v>
+        <v>1363.636094840669</v>
       </c>
       <c r="C44" t="n">
-        <v>1157.419596597467</v>
+        <v>1117.51141030262</v>
       </c>
       <c r="D44" t="n">
-        <v>920.4047059538336</v>
+        <v>880.4965196589872</v>
       </c>
       <c r="E44" t="n">
-        <v>843.7580282750473</v>
+        <v>621.5198738942377</v>
       </c>
       <c r="F44" t="n">
-        <v>565.4159117143613</v>
+        <v>565.4159117143612</v>
       </c>
       <c r="G44" t="n">
-        <v>285.1209992976931</v>
+        <v>285.1209992976929</v>
       </c>
       <c r="H44" t="n">
-        <v>88.10879902414604</v>
+        <v>88.10879902414598</v>
       </c>
       <c r="I44" t="n">
         <v>51.10067436208574</v>
@@ -7649,16 +7649,16 @@
         <v>256.2056921888652</v>
       </c>
       <c r="K44" t="n">
-        <v>541.7711383551655</v>
+        <v>629.4525377876218</v>
       </c>
       <c r="L44" t="n">
-        <v>889.6565114401117</v>
+        <v>1022.762984994086</v>
       </c>
       <c r="M44" t="n">
-        <v>1282.8956776932</v>
+        <v>1416.002151247174</v>
       </c>
       <c r="N44" t="n">
-        <v>1661.227036380915</v>
+        <v>1794.333509934889</v>
       </c>
       <c r="O44" t="n">
         <v>2099.338094407723</v>
@@ -7673,25 +7673,25 @@
         <v>2555.033718104287</v>
       </c>
       <c r="S44" t="n">
-        <v>2555.033718104287</v>
+        <v>2503.613816863785</v>
       </c>
       <c r="T44" t="n">
-        <v>2466.483845964442</v>
+        <v>2415.06394472394</v>
       </c>
       <c r="U44" t="n">
-        <v>2347.40758380758</v>
+        <v>2295.987682567078</v>
       </c>
       <c r="V44" t="n">
-        <v>2146.237383832665</v>
+        <v>2094.817482592162</v>
       </c>
       <c r="W44" t="n">
-        <v>1919.511527819409</v>
+        <v>1868.091626578907</v>
       </c>
       <c r="X44" t="n">
-        <v>1919.511527819409</v>
+        <v>1621.870560229544</v>
       </c>
       <c r="Y44" t="n">
-        <v>1661.778746524391</v>
+        <v>1621.870560229544</v>
       </c>
     </row>
     <row r="45">
@@ -7713,13 +7713,13 @@
         <v>468.130497692063</v>
       </c>
       <c r="F45" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G45" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H45" t="n">
-        <v>119.4829596720247</v>
+        <v>104.77034221192</v>
       </c>
       <c r="I45" t="n">
         <v>51.10067436208574</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>200.1101256317385</v>
+        <v>200.1101256317381</v>
       </c>
       <c r="C46" t="n">
-        <v>166.3032302225625</v>
+        <v>166.3032302225621</v>
       </c>
       <c r="D46" t="n">
-        <v>149.0404111794689</v>
+        <v>149.0404111794686</v>
       </c>
       <c r="E46" t="n">
-        <v>132.8404710699315</v>
+        <v>132.8404710699312</v>
       </c>
       <c r="F46" t="n">
-        <v>116.1688902248523</v>
+        <v>116.1688902248521</v>
       </c>
       <c r="G46" t="n">
-        <v>83.05821572184598</v>
+        <v>83.05821572184587</v>
       </c>
       <c r="H46" t="n">
-        <v>59.49464463026351</v>
+        <v>59.49464463026345</v>
       </c>
       <c r="I46" t="n">
         <v>51.10067436208574</v>
@@ -7807,49 +7807,49 @@
         <v>125.3450483780902</v>
       </c>
       <c r="K46" t="n">
-        <v>292.0557096767073</v>
+        <v>158.9492361227336</v>
       </c>
       <c r="L46" t="n">
-        <v>392.6627890769668</v>
+        <v>259.5563155229931</v>
       </c>
       <c r="M46" t="n">
-        <v>510.6562952045686</v>
+        <v>377.5498216505949</v>
       </c>
       <c r="N46" t="n">
-        <v>629.0786369541689</v>
+        <v>629.078636954169</v>
       </c>
       <c r="O46" t="n">
-        <v>860.6487570038323</v>
+        <v>860.6487570038325</v>
       </c>
       <c r="P46" t="n">
-        <v>949.8278673670516</v>
+        <v>949.8278673670507</v>
       </c>
       <c r="Q46" t="n">
-        <v>1045.163892667506</v>
+        <v>1045.163892667505</v>
       </c>
       <c r="R46" t="n">
-        <v>1031.451185411028</v>
+        <v>1031.451185411027</v>
       </c>
       <c r="S46" t="n">
-        <v>953.5504969438591</v>
+        <v>953.5504969438583</v>
       </c>
       <c r="T46" t="n">
-        <v>856.1806178886817</v>
+        <v>856.1806178886809</v>
       </c>
       <c r="U46" t="n">
-        <v>704.7994525069253</v>
+        <v>704.7994525069246</v>
       </c>
       <c r="V46" t="n">
-        <v>579.8732221944915</v>
+        <v>579.8732221944909</v>
       </c>
       <c r="W46" t="n">
-        <v>429.5258948410344</v>
+        <v>429.5258948410338</v>
       </c>
       <c r="X46" t="n">
-        <v>334.0825048655538</v>
+        <v>334.0825048655533</v>
       </c>
       <c r="Y46" t="n">
-        <v>247.8564201869746</v>
+        <v>247.8564201869742</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K2" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L2" t="n">
-        <v>542.9595789155856</v>
+        <v>387.3615453226935</v>
       </c>
       <c r="M2" t="n">
         <v>584.3675935406823</v>
@@ -7991,7 +7991,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O2" t="n">
-        <v>412.1680043444408</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P2" t="n">
         <v>418.3383206229274</v>
@@ -8055,7 +8055,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K3" t="n">
         <v>343.8048081163522</v>
@@ -8064,16 +8064,16 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>601.4906616692419</v>
+        <v>577.8744057192687</v>
       </c>
       <c r="N3" t="n">
-        <v>592.7219001753103</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O3" t="n">
-        <v>115.8594486111111</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
-        <v>239.6773763471162</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
         <v>273.1004740566038</v>
@@ -8216,7 +8216,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K5" t="n">
-        <v>265.791002749623</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L5" t="n">
         <v>542.9595789155856</v>
@@ -8225,7 +8225,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N5" t="n">
-        <v>568.5510017355793</v>
+        <v>412.9529681426864</v>
       </c>
       <c r="O5" t="n">
         <v>495.0402356415689</v>
@@ -8295,19 +8295,19 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K6" t="n">
-        <v>343.8048081163522</v>
+        <v>259.3257778905137</v>
       </c>
       <c r="L6" t="n">
-        <v>112.5754335711478</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M6" t="n">
-        <v>601.4906616692419</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N6" t="n">
-        <v>592.7219001753103</v>
+        <v>592.7219001753099</v>
       </c>
       <c r="O6" t="n">
-        <v>311.0522410496582</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P6" t="n">
         <v>414.0015992319183</v>
@@ -8529,7 +8529,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>163.9183459425315</v>
+        <v>110.8430489735533</v>
       </c>
       <c r="K9" t="n">
         <v>343.8048081163522</v>
@@ -8544,13 +8544,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O9" t="n">
-        <v>222.1494342538443</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P9" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8775,7 +8775,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>602.6954720094707</v>
+        <v>602.6954720094693</v>
       </c>
       <c r="N12" t="n">
         <v>623.1450866466196</v>
@@ -9006,7 +9006,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
-        <v>341.083697250823</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>270.3793631910725</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9240,7 +9240,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>161.1972350770023</v>
+        <v>161.1972350770009</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
@@ -9483,13 +9483,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>482.0924488944969</v>
+        <v>479.3713380289663</v>
       </c>
       <c r="M21" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>620.4239757810897</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9714,10 +9714,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>161.1972350770009</v>
       </c>
       <c r="K24" t="n">
-        <v>341.0836972508234</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
@@ -10662,7 +10662,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>163.9183459425316</v>
       </c>
       <c r="K36" t="n">
         <v>343.8048081163522</v>
@@ -11376,7 +11376,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>343.8048081163522</v>
+        <v>343.8048081163523</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>276.6729386146302</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>277.4076971867455</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>296.5795132747226</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I11" t="n">
-        <v>57.6588612950832</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.92652010774083</v>
+        <v>3.100348661106459</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>110.715863893862</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>276.1762713617116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>264.6842555723119</v>
+        <v>159.5711156190559</v>
       </c>
       <c r="D14" t="n">
-        <v>62.80746851313985</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>277.4076971867455</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>298.5127811721451</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>57.65886129508321</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,10 +23552,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>220.1793158548093</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>245.4794153327662</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -24509,7 +24509,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.755004851662334e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -25628,25 +25628,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>243.4911046328182</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>197.6792630265684</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>277.4919632925016</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>195.0420782708115</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>36.63804341543965</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25871,10 +25871,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>180.5066684051035</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>220.0157728370013</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>50.90570222809731</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25928,10 +25928,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>243.7588556858693</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>255.155453482068</v>
       </c>
     </row>
     <row r="45">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>545979.1952971978</v>
+        <v>545979.1952971977</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>545979.1952971978</v>
+        <v>545979.1952971977</v>
       </c>
     </row>
     <row r="7">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>565595.3339313674</v>
+        <v>565595.3339313675</v>
       </c>
     </row>
     <row r="16">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>748433.4589818276</v>
+      </c>
+      <c r="C2" t="n">
         <v>748433.4589818271</v>
       </c>
-      <c r="C2" t="n">
-        <v>748433.4589818273</v>
-      </c>
       <c r="D2" t="n">
-        <v>748433.4589818273</v>
+        <v>748433.4589818275</v>
       </c>
       <c r="E2" t="n">
-        <v>686877.0521480883</v>
+        <v>686877.0521480881</v>
       </c>
       <c r="F2" t="n">
         <v>686877.0521480881</v>
       </c>
       <c r="G2" t="n">
-        <v>748433.4589818271</v>
+        <v>748433.4589818274</v>
       </c>
       <c r="H2" t="n">
-        <v>748433.4589818273</v>
+        <v>748433.4589818274</v>
       </c>
       <c r="I2" t="n">
         <v>748433.4589818271</v>
@@ -26338,10 +26338,10 @@
         <v>748433.458981827</v>
       </c>
       <c r="K2" t="n">
-        <v>748433.4589818273</v>
+        <v>748433.458981827</v>
       </c>
       <c r="L2" t="n">
-        <v>748433.4589818275</v>
+        <v>748433.4589818271</v>
       </c>
       <c r="M2" t="n">
         <v>748433.4589818269</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162872.0431324169</v>
+        <v>162872.0431324168</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12206.65382734953</v>
+        <v>12206.65382734965</v>
       </c>
       <c r="E3" t="n">
-        <v>124414.1789784654</v>
+        <v>124414.1789784653</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>42301.35761456149</v>
+        <v>42301.35761456158</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>50434.77802652915</v>
+        <v>50434.77802652933</v>
       </c>
       <c r="M3" t="n">
-        <v>23340.2714174026</v>
+        <v>23340.27141740253</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>33785.73726635006</v>
+        <v>33785.73726635002</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>196366.5200265415</v>
+        <v>196366.5200265416</v>
       </c>
       <c r="C4" t="n">
-        <v>196366.5200265415</v>
+        <v>196366.5200265416</v>
       </c>
       <c r="D4" t="n">
-        <v>185775.7593332931</v>
+        <v>185775.7593332932</v>
       </c>
       <c r="E4" t="n">
         <v>139884.9585504392</v>
@@ -26457,7 +26457,7 @@
         <v>154164.2447772066</v>
       </c>
       <c r="P4" t="n">
-        <v>154164.2447772066</v>
+        <v>154164.2447772067</v>
       </c>
     </row>
     <row r="5">
@@ -26467,28 +26467,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63176.8109537422</v>
+        <v>63176.81095374219</v>
       </c>
       <c r="C5" t="n">
-        <v>63176.8109537422</v>
+        <v>63176.81095374218</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>48330.69016429018</v>
+        <v>48330.69016429016</v>
       </c>
       <c r="F5" t="n">
-        <v>48330.69016429018</v>
+        <v>48330.69016429016</v>
       </c>
       <c r="G5" t="n">
-        <v>52775.9812059134</v>
+        <v>52775.98120591338</v>
       </c>
       <c r="H5" t="n">
         <v>52775.98120591338</v>
       </c>
       <c r="I5" t="n">
-        <v>52775.9812059134</v>
+        <v>52775.98120591338</v>
       </c>
       <c r="J5" t="n">
         <v>58740.88327108059</v>
@@ -26497,7 +26497,7 @@
         <v>58740.88327108059</v>
       </c>
       <c r="L5" t="n">
-        <v>57206.37023867852</v>
+        <v>57206.37023867851</v>
       </c>
       <c r="M5" t="n">
         <v>52802.81689264637</v>
@@ -26509,7 +26509,7 @@
         <v>50139.67223761851</v>
       </c>
       <c r="P5" t="n">
-        <v>50139.67223761851</v>
+        <v>50139.67223761852</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>326018.0848691265</v>
+        <v>326018.0848691269</v>
       </c>
       <c r="C6" t="n">
-        <v>488890.1280015435</v>
+        <v>488890.1280015433</v>
       </c>
       <c r="D6" t="n">
-        <v>484885.0111842731</v>
+        <v>484885.0111842732</v>
       </c>
       <c r="E6" t="n">
-        <v>374247.2244548936</v>
+        <v>374089.3875142942</v>
       </c>
       <c r="F6" t="n">
-        <v>498661.4034333587</v>
+        <v>498503.5664927594</v>
       </c>
       <c r="G6" t="n">
-        <v>477671.9757617391</v>
+        <v>477671.9757617393</v>
       </c>
       <c r="H6" t="n">
         <v>519973.3333763009</v>
@@ -26546,10 +26546,10 @@
         <v>287029.4509727454</v>
       </c>
       <c r="K6" t="n">
-        <v>513284.9641776989</v>
+        <v>513284.9641776987</v>
       </c>
       <c r="L6" t="n">
-        <v>464595.1750031992</v>
+        <v>464595.1750031987</v>
       </c>
       <c r="M6" t="n">
         <v>496667.2501315423</v>
@@ -26558,10 +26558,10 @@
         <v>520007.521548945</v>
       </c>
       <c r="O6" t="n">
-        <v>473465.7658260289</v>
+        <v>473371.2067519914</v>
       </c>
       <c r="P6" t="n">
-        <v>507251.5030923787</v>
+        <v>507156.9440183411</v>
       </c>
     </row>
   </sheetData>
@@ -26698,22 +26698,22 @@
         <v>113.4301655082087</v>
       </c>
       <c r="G2" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="H2" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="I2" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="J2" t="n">
-        <v>126.7869503557441</v>
+        <v>126.7869503557442</v>
       </c>
       <c r="K2" t="n">
         <v>126.7869503557441</v>
       </c>
       <c r="L2" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="M2" t="n">
         <v>166.1290651424569</v>
@@ -26787,43 +26787,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>486.006759107602</v>
+        <v>486.0067591076019</v>
       </c>
       <c r="C4" t="n">
-        <v>486.006759107602</v>
+        <v>486.0067591076016</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>638.0712102003386</v>
+        <v>638.0712102003382</v>
       </c>
       <c r="F4" t="n">
-        <v>638.0712102003386</v>
+        <v>638.0712102003382</v>
       </c>
       <c r="G4" t="n">
-        <v>638.0712102003386</v>
+        <v>638.0712102003382</v>
       </c>
       <c r="H4" t="n">
-        <v>638.0712102003384</v>
+        <v>638.0712102003382</v>
       </c>
       <c r="I4" t="n">
-        <v>638.0712102003387</v>
+        <v>638.0712102003382</v>
       </c>
       <c r="J4" t="n">
-        <v>790.8228806188083</v>
+        <v>790.8228806188082</v>
       </c>
       <c r="K4" t="n">
         <v>790.8228806188083</v>
       </c>
       <c r="L4" t="n">
-        <v>751.52643846142</v>
+        <v>751.5264384614196</v>
       </c>
       <c r="M4" t="n">
+        <v>638.7584295260717</v>
+      </c>
+      <c r="N4" t="n">
         <v>638.7584295260716</v>
-      </c>
-      <c r="N4" t="n">
-        <v>638.7584295260717</v>
       </c>
       <c r="O4" t="n">
         <v>638.7584295260716</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>52.87669701820187</v>
+        <v>52.87669701820198</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.91025333754226</v>
+        <v>73.91025333754217</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>63.04347253316143</v>
+        <v>63.04347253316166</v>
       </c>
       <c r="M2" t="n">
-        <v>29.17533927175324</v>
+        <v>29.17533927175316</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>42.23217158293758</v>
+        <v>42.23217158293753</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>486.006759107602</v>
+        <v>486.0067591076019</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>39.2964421573883</v>
+        <v>39.2964421573887</v>
       </c>
       <c r="E4" t="n">
-        <v>112.7680089353482</v>
+        <v>112.7680089353479</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.7584295260716</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>52.87669701820187</v>
+        <v>52.87669701820198</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>73.91025333754226</v>
+        <v>73.91025333754217</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>486.006759107602</v>
+        <v>486.0067591076019</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>39.2964421573883</v>
+        <v>39.2964421573887</v>
       </c>
       <c r="M4" t="n">
-        <v>112.7680089353482</v>
+        <v>112.7680089353479</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>234.4982386431742</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>248.9641440980978</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27473,10 +27473,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,19 +27506,19 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>210.1080027164358</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>86.26530730075152</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
         <v>59.456666199969</v>
@@ -27585,13 +27585,13 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>198.0922887562452</v>
       </c>
       <c r="T4" t="n">
-        <v>216.2211085512213</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>258.1279513971616</v>
@@ -27600,7 +27600,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>219.8148072196457</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>93.89354618041051</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>369.0957251250487</v>
@@ -27634,7 +27634,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>20.49542176439388</v>
       </c>
     </row>
     <row r="6">
@@ -27698,19 +27698,19 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>121.1929050241216</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27755,13 +27755,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>201.0183689552328</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27777,16 +27777,16 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
-        <v>93.47784511364529</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
         <v>157.7789187685189</v>
@@ -27828,10 +27828,10 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
-        <v>284.3183371157911</v>
+        <v>15.70763571947958</v>
       </c>
       <c r="V7" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>283.2948374677749</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>259.9955570142804</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
@@ -27910,7 +27910,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>74.63887139833082</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27935,22 +27935,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>51.92505545048374</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>62.91557522890456</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>63.70773940111974</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>15.70763571947964</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
         <v>283.2948374677749</v>
@@ -28114,22 +28114,22 @@
         <v>113.4301655082087</v>
       </c>
       <c r="K11" t="n">
-        <v>82.52699415835556</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
+        <v>82.52699415835457</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>113.4301655082087</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
+      <c r="P11" t="n">
         <v>113.4301655082087</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -28181,7 +28181,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>17.23245204481032</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -28217,7 +28217,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>17.23245204480932</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -28348,10 +28348,10 @@
         <v>113.4301655082087</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>82.52699415835426</v>
       </c>
       <c r="L14" t="n">
         <v>113.4301655082087</v>
@@ -28360,19 +28360,19 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>113.4301655082087</v>
       </c>
-      <c r="O14" t="n">
+      <c r="R14" t="n">
         <v>113.4301655082087</v>
-      </c>
-      <c r="P14" t="n">
-        <v>106.2252560274591</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
         <v>113.4301655082087</v>
@@ -28421,7 +28421,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>17.23245204481032</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -28466,7 +28466,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>17.23245204480907</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -28509,7 +28509,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="K16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082089</v>
       </c>
       <c r="L16" t="n">
         <v>113.4301655082087</v>
@@ -28527,7 +28527,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="Q16" t="n">
-        <v>113.4301655082086</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="R16" t="n">
         <v>113.4301655082087</v>
@@ -28561,76 +28561,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="C17" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="D17" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="E17" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="F17" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="G17" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="H17" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="I17" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>166.3068625264106</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>166.3068625264106</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="O17" t="n">
-        <v>37.32706861195857</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>113.9020274992627</v>
       </c>
       <c r="R17" t="n">
-        <v>166.3068625264106</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S17" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="T17" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="U17" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="V17" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="W17" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="X17" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="Y17" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
     </row>
     <row r="18">
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>17.23245204481031</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28700,7 +28700,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>17.23245204480912</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -28719,10 +28719,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="C19" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
@@ -28731,13 +28731,13 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>150.9558484244806</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="H19" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="I19" t="n">
         <v>142.7610139533483</v>
@@ -28755,10 +28755,10 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>2.71228610513208</v>
       </c>
       <c r="O19" t="n">
-        <v>36.3435991617086</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R19" t="n">
-        <v>148.0265635717656</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="S19" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="T19" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="U19" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="V19" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="W19" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="X19" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="Y19" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="C20" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="D20" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="E20" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="F20" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="G20" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="H20" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="I20" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28828,46 +28828,46 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>113.9020274992636</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>37.3270686119572</v>
       </c>
       <c r="P20" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="Q20" t="n">
-        <v>166.3068625264106</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>89.73190363910518</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="S20" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="T20" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="U20" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="V20" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="W20" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="X20" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="Y20" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
     </row>
     <row r="21">
@@ -28925,10 +28925,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>17.2324520448103</v>
       </c>
       <c r="S21" t="n">
-        <v>17.23245204480978</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="C22" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -28971,7 +28971,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="H22" t="n">
         <v>157.7789187685189</v>
@@ -28983,7 +28983,7 @@
         <v>59.456666199969</v>
       </c>
       <c r="K22" t="n">
-        <v>44.87154291960032</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -28992,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>44.87154291959958</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29007,25 +29007,25 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S22" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="T22" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="U22" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="V22" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="W22" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="X22" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="Y22" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
     </row>
     <row r="23">
@@ -29035,46 +29035,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="C23" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="D23" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="E23" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="F23" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="G23" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="H23" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="I23" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>113.9020274992628</v>
       </c>
       <c r="L23" t="n">
-        <v>37.32706861195896</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>166.3068625264106</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>166.3068625264106</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>166.3068625264106</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="T23" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="U23" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="V23" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="W23" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="X23" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="Y23" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
     </row>
     <row r="24">
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>17.23245204481031</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>17.2324520448085</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="C25" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -29208,7 +29208,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="H25" t="n">
         <v>157.7789187685189</v>
@@ -29217,13 +29217,13 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J25" t="n">
-        <v>104.3282091195693</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>44.87154291959956</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29244,25 +29244,25 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S25" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="T25" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="U25" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="V25" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="W25" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="X25" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
       <c r="Y25" t="n">
-        <v>166.3068625264106</v>
+        <v>166.3068625264107</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>126.7869503557441</v>
+        <v>126.7869503557442</v>
       </c>
       <c r="C26" t="n">
-        <v>126.7869503557441</v>
+        <v>126.7869503557442</v>
       </c>
       <c r="D26" t="n">
-        <v>126.7869503557441</v>
+        <v>126.7869503557442</v>
       </c>
       <c r="E26" t="n">
-        <v>126.7869503557441</v>
+        <v>126.7869503557442</v>
       </c>
       <c r="F26" t="n">
-        <v>126.7869503557441</v>
+        <v>126.7869503557442</v>
       </c>
       <c r="G26" t="n">
-        <v>126.7869503557441</v>
+        <v>126.7869503557442</v>
       </c>
       <c r="H26" t="n">
-        <v>126.7869503557441</v>
+        <v>126.7869503557442</v>
       </c>
       <c r="I26" t="n">
-        <v>126.7869503557441</v>
+        <v>126.7869503557442</v>
       </c>
       <c r="J26" t="n">
-        <v>126.7869503557441</v>
+        <v>126.7869503557442</v>
       </c>
       <c r="K26" t="n">
-        <v>126.7869503557441</v>
+        <v>126.7869503557442</v>
       </c>
       <c r="L26" t="n">
-        <v>126.7869503557441</v>
+        <v>126.7869503557442</v>
       </c>
       <c r="M26" t="n">
-        <v>126.7869503557441</v>
+        <v>126.7869503557442</v>
       </c>
       <c r="N26" t="n">
-        <v>126.7869503557441</v>
+        <v>126.7869503557442</v>
       </c>
       <c r="O26" t="n">
-        <v>126.7869503557441</v>
+        <v>126.7869503557442</v>
       </c>
       <c r="P26" t="n">
-        <v>126.7869503557441</v>
+        <v>126.7869503557442</v>
       </c>
       <c r="Q26" t="n">
-        <v>126.7869503557441</v>
+        <v>126.7869503557442</v>
       </c>
       <c r="R26" t="n">
-        <v>126.7869503557441</v>
+        <v>126.7869503557442</v>
       </c>
       <c r="S26" t="n">
-        <v>126.7869503557441</v>
+        <v>126.7869503557442</v>
       </c>
       <c r="T26" t="n">
-        <v>126.7869503557441</v>
+        <v>126.7869503557442</v>
       </c>
       <c r="U26" t="n">
-        <v>126.7869503557441</v>
+        <v>126.7869503557442</v>
       </c>
       <c r="V26" t="n">
-        <v>126.7869503557441</v>
+        <v>126.7869503557442</v>
       </c>
       <c r="W26" t="n">
-        <v>126.7869503557441</v>
+        <v>126.7869503557442</v>
       </c>
       <c r="X26" t="n">
-        <v>126.7869503557441</v>
+        <v>126.7869503557442</v>
       </c>
       <c r="Y26" t="n">
-        <v>126.7869503557441</v>
+        <v>126.7869503557442</v>
       </c>
     </row>
     <row r="27">
@@ -29399,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -29408,7 +29408,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>14.5654912855033</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>126.7869503557441</v>
+        <v>126.7869503557442</v>
       </c>
       <c r="C28" t="n">
-        <v>126.7869503557441</v>
+        <v>126.7869503557442</v>
       </c>
       <c r="D28" t="n">
-        <v>126.7869503557441</v>
+        <v>126.7869503557442</v>
       </c>
       <c r="E28" t="n">
-        <v>126.7869503557441</v>
+        <v>126.7869503557442</v>
       </c>
       <c r="F28" t="n">
-        <v>126.7869503557441</v>
+        <v>126.7869503557442</v>
       </c>
       <c r="G28" t="n">
-        <v>126.7869503557441</v>
+        <v>126.7869503557442</v>
       </c>
       <c r="H28" t="n">
-        <v>126.7869503557441</v>
+        <v>126.7869503557442</v>
       </c>
       <c r="I28" t="n">
-        <v>126.7869503557441</v>
+        <v>126.7869503557442</v>
       </c>
       <c r="J28" t="n">
-        <v>59.456666199969</v>
+        <v>126.7869503557442</v>
       </c>
       <c r="K28" t="n">
-        <v>126.7869503557441</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>126.7869503557441</v>
+        <v>126.7869503557442</v>
       </c>
       <c r="M28" t="n">
-        <v>126.7869503557441</v>
+        <v>126.7869503557442</v>
       </c>
       <c r="N28" t="n">
-        <v>84.63718158143435</v>
+        <v>126.7869503557442</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>126.7869503557441</v>
+        <v>126.7869503557442</v>
       </c>
       <c r="Q28" t="n">
-        <v>38.15196793284785</v>
+        <v>55.45886535850644</v>
       </c>
       <c r="R28" t="n">
-        <v>126.7869503557441</v>
+        <v>126.7869503557442</v>
       </c>
       <c r="S28" t="n">
-        <v>126.7869503557441</v>
+        <v>126.7869503557442</v>
       </c>
       <c r="T28" t="n">
-        <v>126.7869503557441</v>
+        <v>126.7869503557442</v>
       </c>
       <c r="U28" t="n">
-        <v>126.7869503557441</v>
+        <v>126.7869503557442</v>
       </c>
       <c r="V28" t="n">
-        <v>126.7869503557441</v>
+        <v>126.7869503557442</v>
       </c>
       <c r="W28" t="n">
-        <v>126.7869503557441</v>
+        <v>126.7869503557442</v>
       </c>
       <c r="X28" t="n">
-        <v>126.7869503557441</v>
+        <v>126.7869503557442</v>
       </c>
       <c r="Y28" t="n">
-        <v>126.7869503557441</v>
+        <v>126.7869503557442</v>
       </c>
     </row>
     <row r="29">
@@ -29594,7 +29594,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>14.56549128550347</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -29642,7 +29642,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>14.56549128550355</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -29691,10 +29691,10 @@
         <v>126.7869503557441</v>
       </c>
       <c r="J31" t="n">
-        <v>59.456666199969</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="K31" t="n">
-        <v>126.7869503557441</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>126.7869503557441</v>
@@ -29703,16 +29703,16 @@
         <v>126.7869503557441</v>
       </c>
       <c r="N31" t="n">
-        <v>84.63718158143435</v>
+        <v>55.45886535850748</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
         <v>126.7869503557441</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>38.15196793284785</v>
       </c>
       <c r="R31" t="n">
         <v>126.7869503557441</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="C32" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="D32" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="E32" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="F32" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="G32" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="H32" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="I32" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="J32" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="L32" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="M32" t="n">
-        <v>74.03026074547859</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="N32" t="n">
-        <v>136.9537258707037</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="P32" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="Q32" t="n">
-        <v>136.9537258707037</v>
+        <v>74.03026074547682</v>
       </c>
       <c r="R32" t="n">
         <v>89.73190363910518</v>
       </c>
       <c r="S32" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="T32" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="U32" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="V32" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="W32" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="X32" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="Y32" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
     </row>
     <row r="33">
@@ -29834,7 +29834,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>14.56549128550341</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -29846,7 +29846,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>14.56549128550329</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="C34" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="D34" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="E34" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="F34" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="G34" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="H34" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="I34" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="J34" t="n">
         <v>59.456666199969</v>
       </c>
       <c r="K34" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="L34" t="n">
-        <v>14.95256955988165</v>
+        <v>53.10453749272764</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>136.9537258707037</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="P34" t="n">
-        <v>136.9537258707037</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>38.15196793284785</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="R34" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="S34" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="T34" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="U34" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="V34" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="W34" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="X34" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="Y34" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
     </row>
     <row r="35">
@@ -30007,10 +30007,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J35" t="n">
-        <v>40.58157162934947</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K35" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30028,10 +30028,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>116.9787331327008</v>
       </c>
       <c r="R35" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
         <v>166.1290651424569</v>
@@ -30080,7 +30080,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>14.56549128550326</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>14.5654912855036</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -30147,7 +30147,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D37" t="n">
-        <v>151.5411742405149</v>
+        <v>152.6650248714419</v>
       </c>
       <c r="E37" t="n">
         <v>150.4889240962943</v>
@@ -30162,7 +30162,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I37" t="n">
-        <v>166.1290651424569</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J37" t="n">
         <v>59.456666199969</v>
@@ -30174,7 +30174,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>45.56176619902598</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>61.4695335736921</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R37" t="n">
         <v>148.0265635717656</v>
@@ -30244,22 +30244,22 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J38" t="n">
+        <v>116.9787331327009</v>
+      </c>
+      <c r="K38" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K38" t="n">
-        <v>116.9787331327009</v>
-      </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30359,7 +30359,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>14.56549128550378</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -30387,7 +30387,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="F40" t="n">
         <v>150.9558484244806</v>
@@ -30399,16 +30399,16 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I40" t="n">
-        <v>142.7610139533483</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="J40" t="n">
         <v>59.456666199969</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>7.677424594681703</v>
       </c>
       <c r="L40" t="n">
-        <v>28.58311525926163</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R40" t="n">
-        <v>166.1290651424569</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S40" t="n">
         <v>166.1290651424569</v>
@@ -30484,22 +30484,22 @@
         <v>134.4509833878523</v>
       </c>
       <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.16483350531081</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
         <v>134.4509833878523</v>
       </c>
-      <c r="L41" t="n">
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
         <v>134.4509833878523</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.16483350531081</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -30554,7 +30554,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -30602,7 +30602,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>14.56549128550344</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -30642,7 +30642,7 @@
         <v>59.456666199969</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>101.4696976273589</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30651,10 +30651,10 @@
         <v>134.4509833878523</v>
       </c>
       <c r="N43" t="n">
-        <v>101.4696976273595</v>
+        <v>134.4509833878523</v>
       </c>
       <c r="O43" t="n">
-        <v>134.4509833878523</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -30721,10 +30721,10 @@
         <v>134.4509833878523</v>
       </c>
       <c r="K44" t="n">
-        <v>45.88391325405817</v>
+        <v>134.4509833878523</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>45.88391325405814</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -30733,7 +30733,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>134.4509833878523</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>134.4509833878523</v>
@@ -30785,7 +30785,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>14.56549128550374</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -30794,7 +30794,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>14.56549128550371</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30879,22 +30879,22 @@
         <v>134.4509833878523</v>
       </c>
       <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
         <v>134.4509833878523</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>134.4509833878523</v>
       </c>
       <c r="P46" t="n">
-        <v>26.47538043947623</v>
+        <v>26.47538043947507</v>
       </c>
       <c r="Q46" t="n">
         <v>134.4509833878523</v>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K2" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L2" t="n">
-        <v>351.3993667524709</v>
+        <v>195.8013331595789</v>
       </c>
       <c r="M2" t="n">
         <v>397.2112790435232</v>
@@ -34711,7 +34711,7 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O2" t="n">
-        <v>225.2132075643203</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P2" t="n">
         <v>230.4615115717709</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>231.8086389496855</v>
@@ -34784,16 +34784,16 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>486.006759107602</v>
+        <v>462.3905031576288</v>
       </c>
       <c r="N3" t="n">
-        <v>486.006759107602</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
-        <v>130.8231703229729</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
         <v>159.3652826117113</v>
@@ -34936,7 +34936,7 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K5" t="n">
-        <v>86.96799877557625</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L5" t="n">
         <v>351.3993667524709</v>
@@ -34945,7 +34945,7 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N5" t="n">
-        <v>382.1528875633492</v>
+        <v>226.5548539704563</v>
       </c>
       <c r="O5" t="n">
         <v>308.0854388614484</v>
@@ -35015,19 +35015,19 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K6" t="n">
-        <v>231.8086389496855</v>
+        <v>147.3296087238471</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M6" t="n">
-        <v>486.006759107602</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>486.006759107602</v>
+        <v>486.0067591076016</v>
       </c>
       <c r="O6" t="n">
-        <v>195.192792438547</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P6" t="n">
         <v>305.147393207775</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>60.86277427586479</v>
+        <v>7.787477306886596</v>
       </c>
       <c r="K9" t="n">
         <v>231.8086389496855</v>
@@ -35264,13 +35264,13 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O9" t="n">
-        <v>106.2899856427332</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>186.155967803972</v>
       </c>
       <c r="K11" t="n">
-        <v>325.093026526823</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L11" t="n">
-        <v>464.8295322606797</v>
+        <v>433.9263609108255</v>
       </c>
       <c r="M11" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N11" t="n">
-        <v>495.583053071558</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O11" t="n">
-        <v>308.0854388614484</v>
+        <v>421.5156043696572</v>
       </c>
       <c r="P11" t="n">
-        <v>230.4615115717709</v>
+        <v>343.8916770799797</v>
       </c>
       <c r="Q11" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R11" t="n">
-        <v>23.69826186910356</v>
+        <v>23.69826186910355</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,7 +35495,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M12" t="n">
-        <v>487.2115694478308</v>
+        <v>487.2115694478294</v>
       </c>
       <c r="N12" t="n">
         <v>516.4299455789112</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>53.97349930823975</v>
+        <v>53.97349930823973</v>
       </c>
       <c r="K13" t="n">
         <v>147.373789492697</v>
@@ -35586,7 +35586,7 @@
         <v>177.0346945265297</v>
       </c>
       <c r="Q13" t="n">
-        <v>75.27819757536089</v>
+        <v>75.27819757536088</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>72.72580229576329</v>
+        <v>186.155967803972</v>
       </c>
       <c r="K14" t="n">
-        <v>242.5660323684674</v>
+        <v>325.0930265268217</v>
       </c>
       <c r="L14" t="n">
         <v>464.8295322606797</v>
@@ -35656,19 +35656,19 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N14" t="n">
-        <v>495.583053071558</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O14" t="n">
-        <v>421.5156043696572</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P14" t="n">
-        <v>336.68676759923</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q14" t="n">
-        <v>95.38611483488586</v>
+        <v>208.8162803430946</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>23.69826186910355</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K15" t="n">
-        <v>229.0875280841563</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L15" t="n">
         <v>369.5170153233491</v>
@@ -35744,7 +35744,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.3652826117113</v>
+        <v>156.64417174618</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>53.97349930823975</v>
+        <v>53.97349930823973</v>
       </c>
       <c r="K16" t="n">
-        <v>147.373789492697</v>
+        <v>147.3737894926972</v>
       </c>
       <c r="L16" t="n">
         <v>215.0534780337234</v>
@@ -35823,7 +35823,7 @@
         <v>177.0346945265297</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.27819757536079</v>
+        <v>75.27819757536088</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K17" t="n">
-        <v>408.8728948948781</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L17" t="n">
-        <v>517.7062292788816</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M17" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N17" t="n">
-        <v>382.1528875633492</v>
+        <v>548.45975008976</v>
       </c>
       <c r="O17" t="n">
-        <v>345.412507473407</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P17" t="n">
-        <v>230.4615115717709</v>
+        <v>396.7683740981817</v>
       </c>
       <c r="Q17" t="n">
-        <v>95.38611483488586</v>
+        <v>209.2881423341485</v>
       </c>
       <c r="R17" t="n">
-        <v>76.57495888730543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>58.14166341033557</v>
+        <v>58.14166341033422</v>
       </c>
       <c r="K18" t="n">
         <v>231.8086389496855</v>
@@ -36027,13 +36027,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>15.35101410193008</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>8.527943757891705</v>
+        <v>8.527943757891819</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -36051,10 +36051,10 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N19" t="n">
-        <v>119.6185270197983</v>
+        <v>122.3308131249304</v>
       </c>
       <c r="O19" t="n">
-        <v>135.8018279452335</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P19" t="n">
         <v>63.604529018321</v>
@@ -36063,7 +36063,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>18.28029895464516</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L20" t="n">
-        <v>351.3993667524709</v>
+        <v>517.7062292788817</v>
       </c>
       <c r="M20" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N20" t="n">
-        <v>496.0549150626128</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O20" t="n">
-        <v>308.0854388614484</v>
+        <v>345.4125074734056</v>
       </c>
       <c r="P20" t="n">
-        <v>396.7683740981815</v>
+        <v>396.7683740981817</v>
       </c>
       <c r="Q20" t="n">
-        <v>261.6929773612965</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>76.57495888730551</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,13 +36203,13 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L21" t="n">
-        <v>369.5170153233491</v>
+        <v>366.7959044578186</v>
       </c>
       <c r="M21" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N21" t="n">
-        <v>513.7088347133813</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O21" t="n">
         <v>396.1615664486372</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>78.81516690408861</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L22" t="n">
         <v>101.6233125255146</v>
@@ -36288,7 +36288,7 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N22" t="n">
-        <v>119.6185270197983</v>
+        <v>164.4900699393979</v>
       </c>
       <c r="O22" t="n">
         <v>99.45822878352493</v>
@@ -36355,22 +36355,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>72.72580229576329</v>
+        <v>239.032664822174</v>
       </c>
       <c r="K23" t="n">
-        <v>242.5660323684674</v>
+        <v>356.4680598677302</v>
       </c>
       <c r="L23" t="n">
-        <v>388.7264353644299</v>
+        <v>517.7062292788817</v>
       </c>
       <c r="M23" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N23" t="n">
-        <v>548.4597500897598</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O23" t="n">
-        <v>474.392301387859</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P23" t="n">
         <v>230.4615115717709</v>
@@ -36379,7 +36379,7 @@
         <v>95.38611483488586</v>
       </c>
       <c r="R23" t="n">
-        <v>76.57495888730543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.86277427586479</v>
+        <v>58.14166341033422</v>
       </c>
       <c r="K24" t="n">
-        <v>229.0875280841567</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L24" t="n">
         <v>369.5170153233491</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>44.8715429196003</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>33.9436239844883</v>
       </c>
       <c r="L25" t="n">
-        <v>101.6233125255146</v>
+        <v>146.4948554451142</v>
       </c>
       <c r="M25" t="n">
         <v>119.1853597248502</v>
@@ -36595,7 +36595,7 @@
         <v>199.5127526515074</v>
       </c>
       <c r="K26" t="n">
-        <v>369.3529827242115</v>
+        <v>369.3529827242116</v>
       </c>
       <c r="L26" t="n">
         <v>478.1863171082151</v>
@@ -36604,7 +36604,7 @@
         <v>523.9982293992673</v>
       </c>
       <c r="N26" t="n">
-        <v>508.9398379190933</v>
+        <v>508.9398379190934</v>
       </c>
       <c r="O26" t="n">
         <v>434.8723892171926</v>
@@ -36616,7 +36616,7 @@
         <v>222.17306519063</v>
       </c>
       <c r="R26" t="n">
-        <v>37.05504671663894</v>
+        <v>37.05504671663897</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>67.33028415577516</v>
       </c>
       <c r="K28" t="n">
-        <v>160.7305743402324</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L28" t="n">
         <v>228.4102628812588</v>
@@ -36762,16 +36762,16 @@
         <v>245.9723100805944</v>
       </c>
       <c r="N28" t="n">
-        <v>204.2557086012327</v>
+        <v>246.4054773755425</v>
       </c>
       <c r="O28" t="n">
         <v>99.45822878352493</v>
       </c>
       <c r="P28" t="n">
-        <v>190.3914793740651</v>
+        <v>190.3914793740652</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>17.30689742565858</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>222.17306519063</v>
       </c>
       <c r="R29" t="n">
-        <v>37.05504671663894</v>
+        <v>37.05504671663893</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>67.3302841557751</v>
       </c>
       <c r="K31" t="n">
-        <v>160.7305743402324</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L31" t="n">
-        <v>228.4102628812588</v>
+        <v>228.4102628812587</v>
       </c>
       <c r="M31" t="n">
         <v>245.9723100805944</v>
       </c>
       <c r="N31" t="n">
-        <v>204.2557086012327</v>
+        <v>175.0773923783058</v>
       </c>
       <c r="O31" t="n">
-        <v>99.45822878352493</v>
+        <v>226.2451791392691</v>
       </c>
       <c r="P31" t="n">
-        <v>190.3914793740651</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>88.63498242289626</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>209.679528166467</v>
+        <v>209.6795281664671</v>
       </c>
       <c r="K32" t="n">
-        <v>242.5660323684674</v>
+        <v>379.5197582391712</v>
       </c>
       <c r="L32" t="n">
-        <v>488.3530926231746</v>
+        <v>488.3530926231747</v>
       </c>
       <c r="M32" t="n">
-        <v>471.2415397890018</v>
+        <v>534.165004914227</v>
       </c>
       <c r="N32" t="n">
-        <v>519.1066134340529</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O32" t="n">
-        <v>445.0391647321521</v>
+        <v>445.0391647321522</v>
       </c>
       <c r="P32" t="n">
-        <v>367.4152374424746</v>
+        <v>367.4152374424747</v>
       </c>
       <c r="Q32" t="n">
-        <v>232.3398407055896</v>
+        <v>169.4163755803627</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>170.897349855192</v>
+        <v>170.8973498551921</v>
       </c>
       <c r="L34" t="n">
-        <v>116.5758820853963</v>
+        <v>154.7278500182423</v>
       </c>
       <c r="M34" t="n">
         <v>119.1853597248502</v>
       </c>
       <c r="N34" t="n">
-        <v>256.5722528905021</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O34" t="n">
-        <v>99.45822878352493</v>
+        <v>236.4119546542287</v>
       </c>
       <c r="P34" t="n">
-        <v>200.5582548890247</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>98.80175793785592</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>113.3073739251128</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K35" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L35" t="n">
         <v>351.3993667524709</v>
@@ -37324,10 +37324,10 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q35" t="n">
-        <v>95.38611483488586</v>
+        <v>212.3648479675866</v>
       </c>
       <c r="R35" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.86277427586479</v>
+        <v>60.86277427586489</v>
       </c>
       <c r="K36" t="n">
         <v>231.8086389496855</v>
@@ -37443,7 +37443,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -37458,7 +37458,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>23.36805118910868</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M37" t="n">
-        <v>119.1853597248502</v>
+        <v>164.7471259238762</v>
       </c>
       <c r="N37" t="n">
         <v>119.6185270197983</v>
@@ -37482,7 +37482,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q37" t="n">
-        <v>23.31756564084424</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,22 +37540,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>238.8548674382202</v>
+        <v>189.7045354284642</v>
       </c>
       <c r="K38" t="n">
-        <v>359.5447655011683</v>
+        <v>408.6950975109244</v>
       </c>
       <c r="L38" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M38" t="n">
-        <v>397.2112790435232</v>
+        <v>563.3403441859801</v>
       </c>
       <c r="N38" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O38" t="n">
-        <v>474.2145040039054</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P38" t="n">
         <v>230.4615115717709</v>
@@ -37637,7 +37637,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P39" t="n">
-        <v>305.1473932077745</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q39" t="n">
         <v>159.3652826117113</v>
@@ -37683,7 +37683,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>15.6401410461626</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -37695,16 +37695,16 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>23.36805118910868</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>33.9436239844883</v>
+        <v>41.62104857917</v>
       </c>
       <c r="L40" t="n">
-        <v>130.2064277847763</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M40" t="n">
         <v>119.1853597248502</v>
@@ -37722,7 +37722,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.10250157069137</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>207.1767856836155</v>
+        <v>207.1767856836156</v>
       </c>
       <c r="K41" t="n">
-        <v>377.0170157563197</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L41" t="n">
-        <v>485.8503501403232</v>
+        <v>352.5642002577817</v>
       </c>
       <c r="M41" t="n">
-        <v>398.376112548834</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N41" t="n">
-        <v>382.1528875633492</v>
+        <v>516.6038709512015</v>
       </c>
       <c r="O41" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P41" t="n">
-        <v>230.4615115717709</v>
+        <v>364.9124949596232</v>
       </c>
       <c r="Q41" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R41" t="n">
-        <v>44.71907974874708</v>
+        <v>44.71907974874711</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>33.9436239844883</v>
+        <v>135.4133216118472</v>
       </c>
       <c r="L43" t="n">
         <v>101.6233125255146</v>
@@ -37947,16 +37947,16 @@
         <v>253.6363431127025</v>
       </c>
       <c r="N43" t="n">
-        <v>221.0882246471578</v>
+        <v>254.0695104076506</v>
       </c>
       <c r="O43" t="n">
-        <v>233.9092121713772</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P43" t="n">
         <v>63.604529018321</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.29901545500441</v>
+        <v>96.29901545500444</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>207.1767856836155</v>
+        <v>207.1767856836156</v>
       </c>
       <c r="K44" t="n">
-        <v>288.4499456225256</v>
+        <v>377.0170157563198</v>
       </c>
       <c r="L44" t="n">
-        <v>351.3993667524709</v>
+        <v>397.2832800065291</v>
       </c>
       <c r="M44" t="n">
         <v>397.2112790435232</v>
@@ -38029,7 +38029,7 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O44" t="n">
-        <v>442.5364222493007</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P44" t="n">
         <v>364.9124949596232</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>74.99431718788327</v>
+        <v>74.99431718788333</v>
       </c>
       <c r="K46" t="n">
-        <v>168.3946073723405</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L46" t="n">
         <v>101.6233125255146</v>
@@ -38184,16 +38184,16 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N46" t="n">
-        <v>119.6185270197983</v>
+        <v>254.0695104076507</v>
       </c>
       <c r="O46" t="n">
         <v>233.9092121713772</v>
       </c>
       <c r="P46" t="n">
-        <v>90.07990945779723</v>
+        <v>90.07990945779608</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.29901545500441</v>
+        <v>96.29901545500447</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
